--- a/pages/猫咪档案.xlsx
+++ b/pages/猫咪档案.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC4B07-9B17-DA4B-94AC-AE7A386309C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF34C358-13C3-4EFC-B6B9-5E4C990A29D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -369,6 +369,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>离世</t>
@@ -391,6 +392,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>失踪</t>
@@ -413,6 +415,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>许久未见</t>
@@ -435,6 +438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>健康</t>
@@ -457,6 +461,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>不明</t>
@@ -513,6 +518,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>口炎</t>
@@ -522,10 +528,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>==归类到在校</t>
     </r>
+  </si>
+  <si>
+    <t>小灰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑狸加白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -533,26 +552,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -575,7 +594,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -583,7 +602,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -603,14 +622,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -624,18 +643,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -890,7 +911,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,6 +1062,21 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,43 +1107,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
-    <cellStyle name="Bad" xfId="18" builtinId="27"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Neutral" xfId="19" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
+    <cellStyle name="差" xfId="18" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="适中" xfId="19" builtinId="28"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1387,42 +1408,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="225" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="3" width="8.83203125" style="11"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="8.796875" style="2"/>
+    <col min="3" max="3" width="8.796875" style="11"/>
     <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="9.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="3"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="6"/>
+    <col min="8" max="8" width="21.46484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="6"/>
     <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="3"/>
-    <col min="12" max="12" width="12.83203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="3"/>
+    <col min="12" max="12" width="12.796875" style="8" customWidth="1"/>
     <col min="13" max="13" width="15" style="8" customWidth="1"/>
     <col min="14" max="14" width="40.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" style="3" customWidth="1"/>
     <col min="16" max="16" width="24.33203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="21.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.46484375" style="3" customWidth="1"/>
     <col min="18" max="18" width="22.33203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.5" style="3" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="20.1640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.46484375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="18.796875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.1328125" style="3" customWidth="1"/>
     <col min="22" max="23" width="17.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.5" style="13" customWidth="1"/>
-    <col min="25" max="25" width="12.5" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="3"/>
-    <col min="27" max="27" width="13.5" style="3" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="3"/>
+    <col min="24" max="24" width="15.46484375" style="13" customWidth="1"/>
+    <col min="25" max="25" width="12.46484375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.796875" style="3"/>
+    <col min="27" max="27" width="13.46484375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="8.796875" style="3"/>
     <col min="29" max="29" width="10.6640625" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="3"/>
+    <col min="30" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1448,22 +1469,22 @@
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>33</v>
@@ -1487,7 +1508,7 @@
       <c r="T3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="71" t="s">
+      <c r="U3" s="61" t="s">
         <v>49</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1538,7 +1559,7 @@
       <c r="T4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="72"/>
+      <c r="U4" s="62"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1550,20 +1571,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="A5" s="25"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="62"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="67"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1581,7 +1602,7 @@
       <c r="T5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="72"/>
+      <c r="U5" s="62"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1611,7 +1632,7 @@
       <c r="T6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="62" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -1656,7 +1677,7 @@
       <c r="T7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -1695,7 +1716,7 @@
       <c r="T8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="72" t="s">
+      <c r="U8" s="62" t="s">
         <v>51</v>
       </c>
       <c r="V8" s="11"/>
@@ -1736,7 +1757,7 @@
       <c r="T9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -1764,7 +1785,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="74" t="s">
         <v>103</v>
       </c>
       <c r="Q10" s="40" t="s">
@@ -1787,7 +1808,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16">
+    <row r="11" spans="1:29" ht="15">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="D11" s="11"/>
@@ -1810,7 +1831,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="70"/>
+      <c r="P11" s="75"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -1898,7 +1919,7 @@
       </c>
       <c r="Y12" s="11"/>
     </row>
-    <row r="13" spans="1:29" ht="15">
+    <row r="13" spans="1:29" ht="13.9">
       <c r="A13" s="25"/>
       <c r="B13" s="26">
         <v>1</v>
@@ -1953,7 +1974,7 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
     </row>
-    <row r="14" spans="1:29" ht="15">
+    <row r="14" spans="1:29" ht="14.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26">
         <v>2</v>
@@ -2008,7 +2029,7 @@
       </c>
       <c r="Y14" s="11"/>
     </row>
-    <row r="15" spans="1:29" ht="15">
+    <row r="15" spans="1:29" ht="13.9">
       <c r="A15" s="25"/>
       <c r="B15" s="26">
         <v>3</v>
@@ -2061,7 +2082,7 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
     </row>
-    <row r="16" spans="1:29" ht="15">
+    <row r="16" spans="1:29" ht="14.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26">
         <v>4</v>
@@ -2116,7 +2137,7 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
     </row>
-    <row r="17" spans="1:25" ht="15">
+    <row r="17" spans="1:25" ht="13.9">
       <c r="A17" s="25"/>
       <c r="B17" s="26">
         <v>5</v>
@@ -2173,7 +2194,7 @@
       </c>
       <c r="Y17" s="11"/>
     </row>
-    <row r="18" spans="1:25" ht="15">
+    <row r="18" spans="1:25" ht="13.9">
       <c r="A18" s="25"/>
       <c r="B18" s="26">
         <v>6</v>
@@ -2226,586 +2247,603 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
     </row>
-    <row r="19" spans="1:25" customFormat="1" ht="15"/>
-    <row r="20" spans="1:25" customFormat="1" ht="15"/>
-    <row r="21" spans="1:25" customFormat="1" ht="15"/>
-    <row r="22" spans="1:25" customFormat="1" ht="15"/>
-    <row r="23" spans="1:25" customFormat="1" ht="15"/>
-    <row r="24" spans="1:25" customFormat="1" ht="15"/>
-    <row r="25" spans="1:25" customFormat="1" ht="15"/>
-    <row r="26" spans="1:25" customFormat="1" ht="15"/>
-    <row r="27" spans="1:25" customFormat="1" ht="15"/>
-    <row r="28" spans="1:25" customFormat="1" ht="15"/>
-    <row r="29" spans="1:25" customFormat="1" ht="15"/>
-    <row r="30" spans="1:25" customFormat="1" ht="15"/>
-    <row r="31" spans="1:25" customFormat="1" ht="15"/>
-    <row r="32" spans="1:25" customFormat="1" ht="15"/>
-    <row r="33" customFormat="1" ht="15"/>
-    <row r="34" customFormat="1" ht="15"/>
-    <row r="35" customFormat="1" ht="15"/>
-    <row r="36" customFormat="1" ht="15"/>
-    <row r="37" customFormat="1" ht="15"/>
-    <row r="38" customFormat="1" ht="15"/>
-    <row r="39" customFormat="1" ht="15"/>
-    <row r="40" customFormat="1" ht="15"/>
-    <row r="41" customFormat="1" ht="15"/>
-    <row r="42" customFormat="1" ht="15"/>
-    <row r="43" customFormat="1" ht="15"/>
-    <row r="44" customFormat="1" ht="15"/>
-    <row r="45" customFormat="1" ht="15"/>
-    <row r="46" customFormat="1" ht="15"/>
-    <row r="47" customFormat="1" ht="15"/>
-    <row r="48" customFormat="1" ht="15"/>
-    <row r="49" customFormat="1" ht="15"/>
-    <row r="50" customFormat="1" ht="15"/>
-    <row r="51" customFormat="1" ht="15"/>
-    <row r="52" customFormat="1" ht="15"/>
-    <row r="53" customFormat="1" ht="15"/>
-    <row r="54" customFormat="1" ht="15"/>
-    <row r="55" customFormat="1" ht="15"/>
-    <row r="56" customFormat="1" ht="15"/>
-    <row r="57" customFormat="1" ht="15"/>
-    <row r="58" customFormat="1" ht="15"/>
-    <row r="59" customFormat="1" ht="15"/>
-    <row r="60" customFormat="1" ht="15"/>
-    <row r="61" customFormat="1" ht="15"/>
-    <row r="62" customFormat="1" ht="15"/>
-    <row r="63" customFormat="1" ht="15"/>
-    <row r="64" customFormat="1" ht="15"/>
-    <row r="65" customFormat="1" ht="15"/>
-    <row r="66" customFormat="1" ht="15"/>
-    <row r="67" customFormat="1" ht="15"/>
-    <row r="68" customFormat="1" ht="15"/>
-    <row r="69" customFormat="1" ht="15"/>
-    <row r="70" customFormat="1" ht="15"/>
-    <row r="71" customFormat="1" ht="15"/>
-    <row r="72" customFormat="1" ht="15"/>
-    <row r="73" customFormat="1" ht="15"/>
-    <row r="74" customFormat="1" ht="15"/>
-    <row r="75" customFormat="1" ht="15"/>
-    <row r="76" customFormat="1" ht="15"/>
-    <row r="77" customFormat="1" ht="15"/>
-    <row r="78" customFormat="1" ht="15"/>
-    <row r="79" customFormat="1" ht="15"/>
-    <row r="80" customFormat="1" ht="15"/>
-    <row r="81" customFormat="1" ht="15"/>
-    <row r="82" customFormat="1" ht="15"/>
-    <row r="83" customFormat="1" ht="15"/>
-    <row r="84" customFormat="1" ht="15"/>
-    <row r="85" customFormat="1" ht="15"/>
-    <row r="86" customFormat="1" ht="15"/>
-    <row r="87" customFormat="1" ht="15"/>
-    <row r="88" customFormat="1" ht="15"/>
-    <row r="89" customFormat="1" ht="15"/>
-    <row r="90" customFormat="1" ht="15"/>
-    <row r="91" customFormat="1" ht="15"/>
-    <row r="92" customFormat="1" ht="15"/>
-    <row r="93" customFormat="1" ht="15"/>
-    <row r="94" customFormat="1" ht="15"/>
-    <row r="95" customFormat="1" ht="15"/>
-    <row r="96" customFormat="1" ht="15"/>
-    <row r="97" customFormat="1" ht="15"/>
-    <row r="98" customFormat="1" ht="15"/>
-    <row r="99" customFormat="1" ht="15"/>
-    <row r="100" customFormat="1" ht="15"/>
-    <row r="101" customFormat="1" ht="15"/>
-    <row r="102" customFormat="1" ht="15"/>
-    <row r="103" customFormat="1" ht="15"/>
-    <row r="104" customFormat="1" ht="15"/>
-    <row r="105" customFormat="1" ht="15"/>
-    <row r="106" customFormat="1" ht="15"/>
-    <row r="107" customFormat="1" ht="15"/>
-    <row r="108" customFormat="1" ht="15"/>
-    <row r="109" customFormat="1" ht="15"/>
-    <row r="110" customFormat="1" ht="15"/>
-    <row r="111" customFormat="1" ht="15"/>
-    <row r="112" customFormat="1" ht="15"/>
-    <row r="113" customFormat="1" ht="15"/>
-    <row r="114" customFormat="1" ht="15"/>
-    <row r="115" customFormat="1" ht="15"/>
-    <row r="116" customFormat="1" ht="15"/>
-    <row r="117" customFormat="1" ht="15"/>
-    <row r="118" customFormat="1" ht="15"/>
-    <row r="119" customFormat="1" ht="15"/>
-    <row r="120" customFormat="1" ht="15"/>
-    <row r="121" customFormat="1" ht="15"/>
-    <row r="122" customFormat="1" ht="15"/>
-    <row r="123" customFormat="1" ht="15"/>
-    <row r="124" customFormat="1" ht="15"/>
-    <row r="125" customFormat="1" ht="15"/>
-    <row r="126" customFormat="1" ht="15"/>
-    <row r="127" customFormat="1" ht="15"/>
-    <row r="128" customFormat="1" ht="15"/>
-    <row r="129" customFormat="1" ht="15"/>
-    <row r="130" customFormat="1" ht="15"/>
-    <row r="131" customFormat="1" ht="15"/>
-    <row r="132" customFormat="1" ht="15"/>
-    <row r="133" customFormat="1" ht="15"/>
-    <row r="134" customFormat="1" ht="15"/>
-    <row r="135" customFormat="1" ht="15"/>
-    <row r="136" customFormat="1" ht="15"/>
-    <row r="137" customFormat="1" ht="15"/>
-    <row r="138" customFormat="1" ht="15"/>
-    <row r="139" customFormat="1" ht="15"/>
-    <row r="140" customFormat="1" ht="15"/>
-    <row r="141" customFormat="1" ht="15"/>
-    <row r="142" customFormat="1" ht="15"/>
-    <row r="143" customFormat="1" ht="15"/>
-    <row r="144" customFormat="1" ht="15"/>
-    <row r="145" customFormat="1" ht="15"/>
-    <row r="146" customFormat="1" ht="15"/>
-    <row r="147" customFormat="1" ht="15"/>
-    <row r="148" customFormat="1" ht="15"/>
-    <row r="149" customFormat="1" ht="15"/>
-    <row r="150" customFormat="1" ht="15"/>
-    <row r="151" customFormat="1" ht="15"/>
-    <row r="152" customFormat="1" ht="15"/>
-    <row r="153" customFormat="1" ht="15"/>
-    <row r="154" customFormat="1" ht="15"/>
-    <row r="155" customFormat="1" ht="15"/>
-    <row r="156" customFormat="1" ht="15"/>
-    <row r="157" customFormat="1" ht="15"/>
-    <row r="158" customFormat="1" ht="15"/>
-    <row r="159" customFormat="1" ht="15"/>
-    <row r="160" customFormat="1" ht="15"/>
-    <row r="161" customFormat="1" ht="15"/>
-    <row r="162" customFormat="1" ht="15"/>
-    <row r="163" customFormat="1" ht="15"/>
-    <row r="164" customFormat="1" ht="15"/>
-    <row r="165" customFormat="1" ht="15"/>
-    <row r="166" customFormat="1" ht="15"/>
-    <row r="167" customFormat="1" ht="15"/>
-    <row r="168" customFormat="1" ht="15"/>
-    <row r="169" customFormat="1" ht="15"/>
-    <row r="170" customFormat="1" ht="15"/>
-    <row r="171" customFormat="1" ht="15"/>
-    <row r="172" customFormat="1" ht="15"/>
-    <row r="173" customFormat="1" ht="15"/>
-    <row r="174" customFormat="1" ht="15"/>
-    <row r="175" customFormat="1" ht="15"/>
-    <row r="176" customFormat="1" ht="15"/>
-    <row r="177" customFormat="1" ht="15"/>
-    <row r="178" customFormat="1" ht="15"/>
-    <row r="179" customFormat="1" ht="15"/>
-    <row r="180" customFormat="1" ht="15"/>
-    <row r="181" customFormat="1" ht="15"/>
-    <row r="182" customFormat="1" ht="15"/>
-    <row r="183" customFormat="1" ht="15"/>
-    <row r="184" customFormat="1" ht="15"/>
-    <row r="185" customFormat="1" ht="15"/>
-    <row r="186" customFormat="1" ht="15"/>
-    <row r="187" customFormat="1" ht="15"/>
-    <row r="188" customFormat="1" ht="15"/>
-    <row r="189" customFormat="1" ht="15"/>
-    <row r="190" customFormat="1" ht="15"/>
-    <row r="191" customFormat="1" ht="15"/>
-    <row r="192" customFormat="1" ht="15"/>
-    <row r="193" customFormat="1" ht="15"/>
-    <row r="194" customFormat="1" ht="15"/>
-    <row r="195" customFormat="1" ht="15"/>
-    <row r="196" customFormat="1" ht="15"/>
-    <row r="197" customFormat="1" ht="15"/>
-    <row r="198" customFormat="1" ht="15"/>
-    <row r="199" customFormat="1" ht="15"/>
-    <row r="200" customFormat="1" ht="15"/>
-    <row r="201" customFormat="1" ht="15"/>
-    <row r="202" customFormat="1" ht="15"/>
-    <row r="203" customFormat="1" ht="15"/>
-    <row r="204" customFormat="1" ht="15"/>
-    <row r="205" customFormat="1" ht="15"/>
-    <row r="206" customFormat="1" ht="15"/>
-    <row r="207" customFormat="1" ht="15"/>
-    <row r="208" customFormat="1" ht="15"/>
-    <row r="209" customFormat="1" ht="15"/>
-    <row r="210" customFormat="1" ht="15"/>
-    <row r="211" customFormat="1" ht="15"/>
-    <row r="212" customFormat="1" ht="15"/>
-    <row r="213" customFormat="1" ht="15"/>
-    <row r="214" customFormat="1" ht="15"/>
-    <row r="215" customFormat="1" ht="15"/>
-    <row r="216" customFormat="1" ht="15"/>
-    <row r="217" customFormat="1" ht="15"/>
-    <row r="218" customFormat="1" ht="15"/>
-    <row r="219" customFormat="1" ht="15"/>
-    <row r="220" customFormat="1" ht="15"/>
-    <row r="221" customFormat="1" ht="15"/>
-    <row r="222" customFormat="1" ht="15"/>
-    <row r="223" customFormat="1" ht="15"/>
-    <row r="224" customFormat="1" ht="15"/>
-    <row r="225" customFormat="1" ht="15"/>
-    <row r="226" customFormat="1" ht="15"/>
-    <row r="227" customFormat="1" ht="15"/>
-    <row r="228" customFormat="1" ht="15"/>
-    <row r="229" customFormat="1" ht="15"/>
-    <row r="230" customFormat="1" ht="15"/>
-    <row r="231" customFormat="1" ht="15"/>
-    <row r="232" customFormat="1" ht="15"/>
-    <row r="233" customFormat="1" ht="15"/>
-    <row r="234" customFormat="1" ht="15"/>
-    <row r="235" customFormat="1" ht="15"/>
-    <row r="236" customFormat="1" ht="15"/>
-    <row r="237" customFormat="1" ht="15"/>
-    <row r="238" customFormat="1" ht="15"/>
-    <row r="239" customFormat="1" ht="15"/>
-    <row r="240" customFormat="1" ht="15"/>
-    <row r="241" customFormat="1" ht="15"/>
-    <row r="242" customFormat="1" ht="15"/>
-    <row r="243" customFormat="1" ht="15"/>
-    <row r="244" customFormat="1" ht="15"/>
-    <row r="245" customFormat="1" ht="15"/>
-    <row r="246" customFormat="1" ht="15"/>
-    <row r="247" customFormat="1" ht="15"/>
-    <row r="248" customFormat="1" ht="15"/>
-    <row r="249" customFormat="1" ht="15"/>
-    <row r="250" customFormat="1" ht="15"/>
-    <row r="251" customFormat="1" ht="15"/>
-    <row r="252" customFormat="1" ht="15"/>
-    <row r="253" customFormat="1" ht="15"/>
-    <row r="254" customFormat="1" ht="15"/>
-    <row r="255" customFormat="1" ht="15"/>
-    <row r="256" customFormat="1" ht="15"/>
-    <row r="257" customFormat="1" ht="15"/>
-    <row r="258" customFormat="1" ht="15"/>
-    <row r="259" customFormat="1" ht="15"/>
-    <row r="260" customFormat="1" ht="15"/>
-    <row r="261" customFormat="1" ht="15"/>
-    <row r="262" customFormat="1" ht="15"/>
-    <row r="263" customFormat="1" ht="15"/>
-    <row r="264" customFormat="1" ht="15"/>
-    <row r="265" customFormat="1" ht="15"/>
-    <row r="266" customFormat="1" ht="15"/>
-    <row r="267" customFormat="1" ht="15"/>
-    <row r="268" customFormat="1" ht="15"/>
-    <row r="269" customFormat="1" ht="15"/>
-    <row r="270" customFormat="1" ht="15"/>
-    <row r="271" customFormat="1" ht="15"/>
-    <row r="272" customFormat="1" ht="15"/>
-    <row r="273" customFormat="1" ht="15"/>
-    <row r="274" customFormat="1" ht="15"/>
-    <row r="275" customFormat="1" ht="15"/>
-    <row r="276" customFormat="1" ht="15"/>
-    <row r="277" customFormat="1" ht="15"/>
-    <row r="278" customFormat="1" ht="15"/>
-    <row r="279" customFormat="1" ht="15"/>
-    <row r="280" customFormat="1" ht="15"/>
-    <row r="281" customFormat="1" ht="15"/>
-    <row r="282" customFormat="1" ht="15"/>
-    <row r="283" customFormat="1" ht="15"/>
-    <row r="284" customFormat="1" ht="15"/>
-    <row r="285" customFormat="1" ht="15"/>
-    <row r="286" customFormat="1" ht="15"/>
-    <row r="287" customFormat="1" ht="15"/>
-    <row r="288" customFormat="1" ht="15"/>
-    <row r="289" customFormat="1" ht="15"/>
-    <row r="290" customFormat="1" ht="15"/>
-    <row r="291" customFormat="1" ht="15"/>
-    <row r="292" customFormat="1" ht="15"/>
-    <row r="293" customFormat="1" ht="15"/>
-    <row r="294" customFormat="1" ht="15"/>
-    <row r="295" customFormat="1" ht="15"/>
-    <row r="296" customFormat="1" ht="15"/>
-    <row r="297" customFormat="1" ht="15"/>
-    <row r="298" customFormat="1" ht="15"/>
-    <row r="299" customFormat="1" ht="15"/>
-    <row r="300" customFormat="1" ht="15"/>
-    <row r="301" customFormat="1" ht="15"/>
-    <row r="302" customFormat="1" ht="15"/>
-    <row r="303" customFormat="1" ht="15"/>
-    <row r="304" customFormat="1" ht="15"/>
-    <row r="305" customFormat="1" ht="15"/>
-    <row r="306" customFormat="1" ht="15"/>
-    <row r="307" customFormat="1" ht="15"/>
-    <row r="308" customFormat="1" ht="15"/>
-    <row r="309" customFormat="1" ht="15"/>
-    <row r="310" customFormat="1" ht="15"/>
-    <row r="311" customFormat="1" ht="15"/>
-    <row r="312" customFormat="1" ht="15"/>
-    <row r="313" customFormat="1" ht="15"/>
-    <row r="314" customFormat="1" ht="15"/>
-    <row r="315" customFormat="1" ht="15"/>
-    <row r="316" customFormat="1" ht="15"/>
-    <row r="317" customFormat="1" ht="15"/>
-    <row r="318" customFormat="1" ht="15"/>
-    <row r="319" customFormat="1" ht="15"/>
-    <row r="320" customFormat="1" ht="15"/>
-    <row r="321" customFormat="1" ht="15"/>
-    <row r="322" customFormat="1" ht="15"/>
-    <row r="323" customFormat="1" ht="15"/>
-    <row r="324" customFormat="1" ht="15"/>
-    <row r="325" customFormat="1" ht="15"/>
-    <row r="326" customFormat="1" ht="15"/>
-    <row r="327" customFormat="1" ht="15"/>
-    <row r="328" customFormat="1" ht="15"/>
-    <row r="329" customFormat="1" ht="15"/>
-    <row r="330" customFormat="1" ht="15"/>
-    <row r="331" customFormat="1" ht="15"/>
-    <row r="332" customFormat="1" ht="15"/>
-    <row r="333" customFormat="1" ht="15"/>
-    <row r="334" customFormat="1" ht="15"/>
-    <row r="335" customFormat="1" ht="15"/>
-    <row r="336" customFormat="1" ht="15"/>
-    <row r="337" customFormat="1" ht="15"/>
-    <row r="338" customFormat="1" ht="15"/>
-    <row r="339" customFormat="1" ht="15"/>
-    <row r="340" customFormat="1" ht="15"/>
-    <row r="341" customFormat="1" ht="15"/>
-    <row r="342" customFormat="1" ht="15"/>
-    <row r="343" customFormat="1" ht="15"/>
-    <row r="344" customFormat="1" ht="15"/>
-    <row r="345" customFormat="1" ht="15"/>
-    <row r="346" customFormat="1" ht="15"/>
-    <row r="347" customFormat="1" ht="15"/>
-    <row r="348" customFormat="1" ht="15"/>
-    <row r="349" customFormat="1" ht="15"/>
-    <row r="350" customFormat="1" ht="15"/>
-    <row r="351" customFormat="1" ht="15"/>
-    <row r="352" customFormat="1" ht="15"/>
-    <row r="353" customFormat="1" ht="15"/>
-    <row r="354" customFormat="1" ht="15"/>
-    <row r="355" customFormat="1" ht="15"/>
-    <row r="356" customFormat="1" ht="15"/>
-    <row r="357" customFormat="1" ht="15"/>
-    <row r="358" customFormat="1" ht="15"/>
-    <row r="359" customFormat="1" ht="15"/>
-    <row r="360" customFormat="1" ht="15"/>
-    <row r="361" customFormat="1" ht="15"/>
-    <row r="362" customFormat="1" ht="15"/>
-    <row r="363" customFormat="1" ht="15"/>
-    <row r="364" customFormat="1" ht="15"/>
-    <row r="365" customFormat="1" ht="15"/>
-    <row r="366" customFormat="1" ht="15"/>
-    <row r="367" customFormat="1" ht="15"/>
-    <row r="368" customFormat="1" ht="15"/>
-    <row r="369" customFormat="1" ht="15"/>
-    <row r="370" customFormat="1" ht="15"/>
-    <row r="371" customFormat="1" ht="15"/>
-    <row r="372" customFormat="1" ht="15"/>
-    <row r="373" customFormat="1" ht="15"/>
-    <row r="374" customFormat="1" ht="15"/>
-    <row r="375" customFormat="1" ht="15"/>
-    <row r="376" customFormat="1" ht="15"/>
-    <row r="377" customFormat="1" ht="15"/>
-    <row r="378" customFormat="1" ht="15"/>
-    <row r="379" customFormat="1" ht="15"/>
-    <row r="380" customFormat="1" ht="15"/>
-    <row r="381" customFormat="1" ht="15"/>
-    <row r="382" customFormat="1" ht="15"/>
-    <row r="383" customFormat="1" ht="15"/>
-    <row r="384" customFormat="1" ht="15"/>
-    <row r="385" customFormat="1" ht="15"/>
-    <row r="386" customFormat="1" ht="15"/>
-    <row r="387" customFormat="1" ht="15"/>
-    <row r="388" customFormat="1" ht="15"/>
-    <row r="389" customFormat="1" ht="15"/>
-    <row r="390" customFormat="1" ht="15"/>
-    <row r="391" customFormat="1" ht="15"/>
-    <row r="392" customFormat="1" ht="15"/>
-    <row r="393" customFormat="1" ht="15"/>
-    <row r="394" customFormat="1" ht="15"/>
-    <row r="395" customFormat="1" ht="15"/>
-    <row r="396" customFormat="1" ht="15"/>
-    <row r="397" customFormat="1" ht="15"/>
-    <row r="398" customFormat="1" ht="15"/>
-    <row r="399" customFormat="1" ht="15"/>
-    <row r="400" customFormat="1" ht="15"/>
-    <row r="401" customFormat="1" ht="15"/>
-    <row r="402" customFormat="1" ht="15"/>
-    <row r="403" customFormat="1" ht="15"/>
-    <row r="404" customFormat="1" ht="15"/>
-    <row r="405" customFormat="1" ht="15"/>
-    <row r="406" customFormat="1" ht="15"/>
-    <row r="407" customFormat="1" ht="15"/>
-    <row r="408" customFormat="1" ht="15"/>
-    <row r="409" customFormat="1" ht="15"/>
-    <row r="410" customFormat="1" ht="15"/>
-    <row r="411" customFormat="1" ht="15"/>
-    <row r="412" customFormat="1" ht="15"/>
-    <row r="413" customFormat="1" ht="15"/>
-    <row r="414" customFormat="1" ht="15"/>
-    <row r="415" customFormat="1" ht="15"/>
-    <row r="416" customFormat="1" ht="15"/>
-    <row r="417" customFormat="1" ht="15"/>
-    <row r="418" customFormat="1" ht="15"/>
-    <row r="419" customFormat="1" ht="15"/>
-    <row r="420" customFormat="1" ht="15"/>
-    <row r="421" customFormat="1" ht="15"/>
-    <row r="422" customFormat="1" ht="15"/>
-    <row r="423" customFormat="1" ht="15"/>
-    <row r="424" customFormat="1" ht="15"/>
-    <row r="425" customFormat="1" ht="15"/>
-    <row r="426" customFormat="1" ht="15"/>
-    <row r="427" customFormat="1" ht="15"/>
-    <row r="428" customFormat="1" ht="15"/>
-    <row r="429" customFormat="1" ht="15"/>
-    <row r="430" customFormat="1" ht="15"/>
-    <row r="431" customFormat="1" ht="15"/>
-    <row r="432" customFormat="1" ht="15"/>
-    <row r="433" customFormat="1" ht="15"/>
-    <row r="434" customFormat="1" ht="15"/>
-    <row r="435" customFormat="1" ht="15"/>
-    <row r="436" customFormat="1" ht="15"/>
-    <row r="437" customFormat="1" ht="15"/>
-    <row r="438" customFormat="1" ht="15"/>
-    <row r="439" customFormat="1" ht="15"/>
-    <row r="440" customFormat="1" ht="15"/>
-    <row r="441" customFormat="1" ht="15"/>
-    <row r="442" customFormat="1" ht="15"/>
-    <row r="443" customFormat="1" ht="15"/>
-    <row r="444" customFormat="1" ht="15"/>
-    <row r="445" customFormat="1" ht="15"/>
-    <row r="446" customFormat="1" ht="15"/>
-    <row r="447" customFormat="1" ht="15"/>
-    <row r="448" customFormat="1" ht="15"/>
-    <row r="449" customFormat="1" ht="15"/>
-    <row r="450" customFormat="1" ht="15"/>
-    <row r="451" customFormat="1" ht="15"/>
-    <row r="452" customFormat="1" ht="15"/>
-    <row r="453" customFormat="1" ht="15"/>
-    <row r="454" customFormat="1" ht="15"/>
-    <row r="455" customFormat="1" ht="15"/>
-    <row r="456" customFormat="1" ht="15"/>
-    <row r="457" customFormat="1" ht="15"/>
-    <row r="458" customFormat="1" ht="15"/>
-    <row r="459" customFormat="1" ht="15"/>
-    <row r="460" customFormat="1" ht="15"/>
-    <row r="461" customFormat="1" ht="15"/>
-    <row r="462" customFormat="1" ht="15"/>
-    <row r="463" customFormat="1" ht="15"/>
-    <row r="464" customFormat="1" ht="15"/>
-    <row r="465" customFormat="1" ht="15"/>
-    <row r="466" customFormat="1" ht="15"/>
-    <row r="467" customFormat="1" ht="15"/>
-    <row r="468" customFormat="1" ht="15"/>
-    <row r="469" customFormat="1" ht="15"/>
-    <row r="470" customFormat="1" ht="15"/>
-    <row r="471" customFormat="1" ht="15"/>
-    <row r="472" customFormat="1" ht="15"/>
-    <row r="473" customFormat="1" ht="15"/>
-    <row r="474" customFormat="1" ht="15"/>
-    <row r="475" customFormat="1" ht="15"/>
-    <row r="476" customFormat="1" ht="15"/>
-    <row r="477" customFormat="1" ht="15"/>
-    <row r="478" customFormat="1" ht="15"/>
-    <row r="479" customFormat="1" ht="15"/>
-    <row r="480" customFormat="1" ht="15"/>
-    <row r="481" customFormat="1" ht="15"/>
-    <row r="482" customFormat="1" ht="15"/>
-    <row r="483" customFormat="1" ht="15"/>
-    <row r="484" customFormat="1" ht="15"/>
-    <row r="485" customFormat="1" ht="15"/>
-    <row r="486" customFormat="1" ht="15"/>
-    <row r="487" customFormat="1" ht="15"/>
-    <row r="488" customFormat="1" ht="15"/>
-    <row r="489" customFormat="1" ht="15"/>
-    <row r="490" customFormat="1" ht="15"/>
-    <row r="491" customFormat="1" ht="15"/>
-    <row r="492" customFormat="1" ht="15"/>
-    <row r="493" customFormat="1" ht="15"/>
-    <row r="494" customFormat="1" ht="15"/>
-    <row r="495" customFormat="1" ht="15"/>
-    <row r="496" customFormat="1" ht="15"/>
-    <row r="497" customFormat="1" ht="15"/>
-    <row r="498" customFormat="1" ht="15"/>
-    <row r="499" customFormat="1" ht="15"/>
-    <row r="500" customFormat="1" ht="15"/>
-    <row r="501" customFormat="1" ht="15"/>
-    <row r="502" customFormat="1" ht="15"/>
-    <row r="503" customFormat="1" ht="15"/>
-    <row r="504" customFormat="1" ht="15"/>
-    <row r="505" customFormat="1" ht="15"/>
-    <row r="506" customFormat="1" ht="15"/>
-    <row r="507" customFormat="1" ht="15"/>
-    <row r="508" customFormat="1" ht="15"/>
-    <row r="509" customFormat="1" ht="15"/>
-    <row r="510" customFormat="1" ht="15"/>
-    <row r="511" customFormat="1" ht="15"/>
-    <row r="512" customFormat="1" ht="15"/>
-    <row r="513" customFormat="1" ht="15"/>
-    <row r="514" customFormat="1" ht="15"/>
-    <row r="515" customFormat="1" ht="15"/>
-    <row r="516" customFormat="1" ht="15"/>
-    <row r="517" customFormat="1" ht="15"/>
-    <row r="518" customFormat="1" ht="15"/>
-    <row r="519" customFormat="1" ht="15"/>
-    <row r="520" customFormat="1" ht="15"/>
-    <row r="521" customFormat="1" ht="15"/>
-    <row r="522" customFormat="1" ht="15"/>
-    <row r="523" customFormat="1" ht="15"/>
-    <row r="524" customFormat="1" ht="15"/>
-    <row r="525" customFormat="1" ht="15"/>
-    <row r="526" customFormat="1" ht="15"/>
-    <row r="527" customFormat="1" ht="15"/>
-    <row r="528" customFormat="1" ht="15"/>
-    <row r="529" customFormat="1" ht="15"/>
-    <row r="530" customFormat="1" ht="15"/>
-    <row r="531" customFormat="1" ht="15"/>
-    <row r="532" customFormat="1" ht="15"/>
-    <row r="533" customFormat="1" ht="15"/>
-    <row r="534" customFormat="1" ht="15"/>
-    <row r="535" customFormat="1" ht="15"/>
-    <row r="536" customFormat="1" ht="15"/>
-    <row r="537" customFormat="1" ht="15"/>
-    <row r="538" customFormat="1" ht="15"/>
-    <row r="539" customFormat="1" ht="15"/>
-    <row r="540" customFormat="1" ht="15"/>
-    <row r="541" customFormat="1" ht="15"/>
-    <row r="542" customFormat="1" ht="15"/>
-    <row r="543" customFormat="1" ht="15"/>
-    <row r="544" customFormat="1" ht="15"/>
-    <row r="545" customFormat="1" ht="15"/>
-    <row r="546" customFormat="1" ht="15"/>
-    <row r="547" customFormat="1" ht="15"/>
-    <row r="548" customFormat="1" ht="15"/>
-    <row r="549" customFormat="1" ht="15"/>
-    <row r="550" customFormat="1" ht="15"/>
-    <row r="551" customFormat="1" ht="15"/>
-    <row r="552" customFormat="1" ht="15"/>
-    <row r="553" customFormat="1" ht="15"/>
-    <row r="554" customFormat="1" ht="15"/>
-    <row r="555" customFormat="1" ht="15"/>
-    <row r="556" customFormat="1" ht="15"/>
-    <row r="557" customFormat="1" ht="15"/>
-    <row r="558" customFormat="1" ht="15"/>
-    <row r="559" customFormat="1" ht="15"/>
-    <row r="560" customFormat="1" ht="15"/>
-    <row r="561" customFormat="1" ht="15"/>
-    <row r="562" customFormat="1" ht="15"/>
-    <row r="563" customFormat="1" ht="15"/>
-    <row r="564" customFormat="1" ht="15"/>
-    <row r="565" customFormat="1" ht="15"/>
-    <row r="566" customFormat="1" ht="15"/>
-    <row r="567" customFormat="1" ht="15"/>
-    <row r="568" customFormat="1" ht="15"/>
-    <row r="569" customFormat="1" ht="15"/>
-    <row r="570" customFormat="1" ht="15"/>
-    <row r="571" customFormat="1" ht="15"/>
-    <row r="572" customFormat="1" ht="15"/>
-    <row r="573" customFormat="1" ht="15"/>
-    <row r="574" customFormat="1" ht="15"/>
-    <row r="575" customFormat="1" ht="15"/>
-    <row r="576" customFormat="1" ht="15"/>
-    <row r="577" customFormat="1" ht="15"/>
-    <row r="578" customFormat="1" ht="15"/>
-    <row r="579" customFormat="1" ht="15"/>
-    <row r="580" customFormat="1" ht="15"/>
-    <row r="581" customFormat="1" ht="15"/>
-    <row r="582" customFormat="1" ht="15"/>
-    <row r="583" customFormat="1" ht="15"/>
-    <row r="584" customFormat="1" ht="15"/>
-    <row r="585" customFormat="1" ht="15"/>
-    <row r="586" customFormat="1" ht="15"/>
-    <row r="587" customFormat="1" ht="15"/>
-    <row r="588" customFormat="1" ht="15"/>
-    <row r="589" customFormat="1" ht="15"/>
-    <row r="590" customFormat="1" ht="15"/>
-    <row r="591" customFormat="1" ht="15"/>
-    <row r="592" customFormat="1" ht="15"/>
-    <row r="593" customFormat="1" ht="15"/>
-    <row r="594" customFormat="1" ht="15"/>
-    <row r="595" customFormat="1" ht="15"/>
+    <row r="19" spans="1:25" customFormat="1" ht="13.9">
+      <c r="C19" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="21" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="22" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="23" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="24" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="25" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="26" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="27" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="28" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="29" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="30" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="31" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="32" spans="1:25" customFormat="1" ht="13.9"/>
+    <row r="33" customFormat="1" ht="13.9"/>
+    <row r="34" customFormat="1" ht="13.9"/>
+    <row r="35" customFormat="1" ht="13.9"/>
+    <row r="36" customFormat="1" ht="13.9"/>
+    <row r="37" customFormat="1" ht="13.9"/>
+    <row r="38" customFormat="1" ht="13.9"/>
+    <row r="39" customFormat="1" ht="13.9"/>
+    <row r="40" customFormat="1" ht="13.9"/>
+    <row r="41" customFormat="1" ht="13.9"/>
+    <row r="42" customFormat="1" ht="13.9"/>
+    <row r="43" customFormat="1" ht="13.9"/>
+    <row r="44" customFormat="1" ht="13.9"/>
+    <row r="45" customFormat="1" ht="13.9"/>
+    <row r="46" customFormat="1" ht="13.9"/>
+    <row r="47" customFormat="1" ht="13.9"/>
+    <row r="48" customFormat="1" ht="13.9"/>
+    <row r="49" customFormat="1" ht="13.9"/>
+    <row r="50" customFormat="1" ht="13.9"/>
+    <row r="51" customFormat="1" ht="13.9"/>
+    <row r="52" customFormat="1" ht="13.9"/>
+    <row r="53" customFormat="1" ht="13.9"/>
+    <row r="54" customFormat="1" ht="13.9"/>
+    <row r="55" customFormat="1" ht="13.9"/>
+    <row r="56" customFormat="1" ht="13.9"/>
+    <row r="57" customFormat="1" ht="13.9"/>
+    <row r="58" customFormat="1" ht="13.9"/>
+    <row r="59" customFormat="1" ht="13.9"/>
+    <row r="60" customFormat="1" ht="13.9"/>
+    <row r="61" customFormat="1" ht="13.9"/>
+    <row r="62" customFormat="1" ht="13.9"/>
+    <row r="63" customFormat="1" ht="13.9"/>
+    <row r="64" customFormat="1" ht="13.9"/>
+    <row r="65" customFormat="1" ht="13.9"/>
+    <row r="66" customFormat="1" ht="13.9"/>
+    <row r="67" customFormat="1" ht="13.9"/>
+    <row r="68" customFormat="1" ht="13.9"/>
+    <row r="69" customFormat="1" ht="13.9"/>
+    <row r="70" customFormat="1" ht="13.9"/>
+    <row r="71" customFormat="1" ht="13.9"/>
+    <row r="72" customFormat="1" ht="13.9"/>
+    <row r="73" customFormat="1" ht="13.9"/>
+    <row r="74" customFormat="1" ht="13.9"/>
+    <row r="75" customFormat="1" ht="13.9"/>
+    <row r="76" customFormat="1" ht="13.9"/>
+    <row r="77" customFormat="1" ht="13.9"/>
+    <row r="78" customFormat="1" ht="13.9"/>
+    <row r="79" customFormat="1" ht="13.9"/>
+    <row r="80" customFormat="1" ht="13.9"/>
+    <row r="81" customFormat="1" ht="13.9"/>
+    <row r="82" customFormat="1" ht="13.9"/>
+    <row r="83" customFormat="1" ht="13.9"/>
+    <row r="84" customFormat="1" ht="13.9"/>
+    <row r="85" customFormat="1" ht="13.9"/>
+    <row r="86" customFormat="1" ht="13.9"/>
+    <row r="87" customFormat="1" ht="13.9"/>
+    <row r="88" customFormat="1" ht="13.9"/>
+    <row r="89" customFormat="1" ht="13.9"/>
+    <row r="90" customFormat="1" ht="13.9"/>
+    <row r="91" customFormat="1" ht="13.9"/>
+    <row r="92" customFormat="1" ht="13.9"/>
+    <row r="93" customFormat="1" ht="13.9"/>
+    <row r="94" customFormat="1" ht="13.9"/>
+    <row r="95" customFormat="1" ht="13.9"/>
+    <row r="96" customFormat="1" ht="13.9"/>
+    <row r="97" customFormat="1" ht="13.9"/>
+    <row r="98" customFormat="1" ht="13.9"/>
+    <row r="99" customFormat="1" ht="13.9"/>
+    <row r="100" customFormat="1" ht="13.9"/>
+    <row r="101" customFormat="1" ht="13.9"/>
+    <row r="102" customFormat="1" ht="13.9"/>
+    <row r="103" customFormat="1" ht="13.9"/>
+    <row r="104" customFormat="1" ht="13.9"/>
+    <row r="105" customFormat="1" ht="13.9"/>
+    <row r="106" customFormat="1" ht="13.9"/>
+    <row r="107" customFormat="1" ht="13.9"/>
+    <row r="108" customFormat="1" ht="13.9"/>
+    <row r="109" customFormat="1" ht="13.9"/>
+    <row r="110" customFormat="1" ht="13.9"/>
+    <row r="111" customFormat="1" ht="13.9"/>
+    <row r="112" customFormat="1" ht="13.9"/>
+    <row r="113" customFormat="1" ht="13.9"/>
+    <row r="114" customFormat="1" ht="13.9"/>
+    <row r="115" customFormat="1" ht="13.9"/>
+    <row r="116" customFormat="1" ht="13.9"/>
+    <row r="117" customFormat="1" ht="13.9"/>
+    <row r="118" customFormat="1" ht="13.9"/>
+    <row r="119" customFormat="1" ht="13.9"/>
+    <row r="120" customFormat="1" ht="13.9"/>
+    <row r="121" customFormat="1" ht="13.9"/>
+    <row r="122" customFormat="1" ht="13.9"/>
+    <row r="123" customFormat="1" ht="13.9"/>
+    <row r="124" customFormat="1" ht="13.9"/>
+    <row r="125" customFormat="1" ht="13.9"/>
+    <row r="126" customFormat="1" ht="13.9"/>
+    <row r="127" customFormat="1" ht="13.9"/>
+    <row r="128" customFormat="1" ht="13.9"/>
+    <row r="129" customFormat="1" ht="13.9"/>
+    <row r="130" customFormat="1" ht="13.9"/>
+    <row r="131" customFormat="1" ht="13.9"/>
+    <row r="132" customFormat="1" ht="13.9"/>
+    <row r="133" customFormat="1" ht="13.9"/>
+    <row r="134" customFormat="1" ht="13.9"/>
+    <row r="135" customFormat="1" ht="13.9"/>
+    <row r="136" customFormat="1" ht="13.9"/>
+    <row r="137" customFormat="1" ht="13.9"/>
+    <row r="138" customFormat="1" ht="13.9"/>
+    <row r="139" customFormat="1" ht="13.9"/>
+    <row r="140" customFormat="1" ht="13.9"/>
+    <row r="141" customFormat="1" ht="13.9"/>
+    <row r="142" customFormat="1" ht="13.9"/>
+    <row r="143" customFormat="1" ht="13.9"/>
+    <row r="144" customFormat="1" ht="13.9"/>
+    <row r="145" customFormat="1" ht="13.9"/>
+    <row r="146" customFormat="1" ht="13.9"/>
+    <row r="147" customFormat="1" ht="13.9"/>
+    <row r="148" customFormat="1" ht="13.9"/>
+    <row r="149" customFormat="1" ht="13.9"/>
+    <row r="150" customFormat="1" ht="13.9"/>
+    <row r="151" customFormat="1" ht="13.9"/>
+    <row r="152" customFormat="1" ht="13.9"/>
+    <row r="153" customFormat="1" ht="13.9"/>
+    <row r="154" customFormat="1" ht="13.9"/>
+    <row r="155" customFormat="1" ht="13.9"/>
+    <row r="156" customFormat="1" ht="13.9"/>
+    <row r="157" customFormat="1" ht="13.9"/>
+    <row r="158" customFormat="1" ht="13.9"/>
+    <row r="159" customFormat="1" ht="13.9"/>
+    <row r="160" customFormat="1" ht="13.9"/>
+    <row r="161" customFormat="1" ht="13.9"/>
+    <row r="162" customFormat="1" ht="13.9"/>
+    <row r="163" customFormat="1" ht="13.9"/>
+    <row r="164" customFormat="1" ht="13.9"/>
+    <row r="165" customFormat="1" ht="13.9"/>
+    <row r="166" customFormat="1" ht="13.9"/>
+    <row r="167" customFormat="1" ht="13.9"/>
+    <row r="168" customFormat="1" ht="13.9"/>
+    <row r="169" customFormat="1" ht="13.9"/>
+    <row r="170" customFormat="1" ht="13.9"/>
+    <row r="171" customFormat="1" ht="13.9"/>
+    <row r="172" customFormat="1" ht="13.9"/>
+    <row r="173" customFormat="1" ht="13.9"/>
+    <row r="174" customFormat="1" ht="13.9"/>
+    <row r="175" customFormat="1" ht="13.9"/>
+    <row r="176" customFormat="1" ht="13.9"/>
+    <row r="177" customFormat="1" ht="13.9"/>
+    <row r="178" customFormat="1" ht="13.9"/>
+    <row r="179" customFormat="1" ht="13.9"/>
+    <row r="180" customFormat="1" ht="13.9"/>
+    <row r="181" customFormat="1" ht="13.9"/>
+    <row r="182" customFormat="1" ht="13.9"/>
+    <row r="183" customFormat="1" ht="13.9"/>
+    <row r="184" customFormat="1" ht="13.9"/>
+    <row r="185" customFormat="1" ht="13.9"/>
+    <row r="186" customFormat="1" ht="13.9"/>
+    <row r="187" customFormat="1" ht="13.9"/>
+    <row r="188" customFormat="1" ht="13.9"/>
+    <row r="189" customFormat="1" ht="13.9"/>
+    <row r="190" customFormat="1" ht="13.9"/>
+    <row r="191" customFormat="1" ht="13.9"/>
+    <row r="192" customFormat="1" ht="13.9"/>
+    <row r="193" customFormat="1" ht="13.9"/>
+    <row r="194" customFormat="1" ht="13.9"/>
+    <row r="195" customFormat="1" ht="13.9"/>
+    <row r="196" customFormat="1" ht="13.9"/>
+    <row r="197" customFormat="1" ht="13.9"/>
+    <row r="198" customFormat="1" ht="13.9"/>
+    <row r="199" customFormat="1" ht="13.9"/>
+    <row r="200" customFormat="1" ht="13.9"/>
+    <row r="201" customFormat="1" ht="13.9"/>
+    <row r="202" customFormat="1" ht="13.9"/>
+    <row r="203" customFormat="1" ht="13.9"/>
+    <row r="204" customFormat="1" ht="13.9"/>
+    <row r="205" customFormat="1" ht="13.9"/>
+    <row r="206" customFormat="1" ht="13.9"/>
+    <row r="207" customFormat="1" ht="13.9"/>
+    <row r="208" customFormat="1" ht="13.9"/>
+    <row r="209" customFormat="1" ht="13.9"/>
+    <row r="210" customFormat="1" ht="13.9"/>
+    <row r="211" customFormat="1" ht="13.9"/>
+    <row r="212" customFormat="1" ht="13.9"/>
+    <row r="213" customFormat="1" ht="13.9"/>
+    <row r="214" customFormat="1" ht="13.9"/>
+    <row r="215" customFormat="1" ht="13.9"/>
+    <row r="216" customFormat="1" ht="13.9"/>
+    <row r="217" customFormat="1" ht="13.9"/>
+    <row r="218" customFormat="1" ht="13.9"/>
+    <row r="219" customFormat="1" ht="13.9"/>
+    <row r="220" customFormat="1" ht="13.9"/>
+    <row r="221" customFormat="1" ht="13.9"/>
+    <row r="222" customFormat="1" ht="13.9"/>
+    <row r="223" customFormat="1" ht="13.9"/>
+    <row r="224" customFormat="1" ht="13.9"/>
+    <row r="225" customFormat="1" ht="13.9"/>
+    <row r="226" customFormat="1" ht="13.9"/>
+    <row r="227" customFormat="1" ht="13.9"/>
+    <row r="228" customFormat="1" ht="13.9"/>
+    <row r="229" customFormat="1" ht="13.9"/>
+    <row r="230" customFormat="1" ht="13.9"/>
+    <row r="231" customFormat="1" ht="13.9"/>
+    <row r="232" customFormat="1" ht="13.9"/>
+    <row r="233" customFormat="1" ht="13.9"/>
+    <row r="234" customFormat="1" ht="13.9"/>
+    <row r="235" customFormat="1" ht="13.9"/>
+    <row r="236" customFormat="1" ht="13.9"/>
+    <row r="237" customFormat="1" ht="13.9"/>
+    <row r="238" customFormat="1" ht="13.9"/>
+    <row r="239" customFormat="1" ht="13.9"/>
+    <row r="240" customFormat="1" ht="13.9"/>
+    <row r="241" customFormat="1" ht="13.9"/>
+    <row r="242" customFormat="1" ht="13.9"/>
+    <row r="243" customFormat="1" ht="13.9"/>
+    <row r="244" customFormat="1" ht="13.9"/>
+    <row r="245" customFormat="1" ht="13.9"/>
+    <row r="246" customFormat="1" ht="13.9"/>
+    <row r="247" customFormat="1" ht="13.9"/>
+    <row r="248" customFormat="1" ht="13.9"/>
+    <row r="249" customFormat="1" ht="13.9"/>
+    <row r="250" customFormat="1" ht="13.9"/>
+    <row r="251" customFormat="1" ht="13.9"/>
+    <row r="252" customFormat="1" ht="13.9"/>
+    <row r="253" customFormat="1" ht="13.9"/>
+    <row r="254" customFormat="1" ht="13.9"/>
+    <row r="255" customFormat="1" ht="13.9"/>
+    <row r="256" customFormat="1" ht="13.9"/>
+    <row r="257" customFormat="1" ht="13.9"/>
+    <row r="258" customFormat="1" ht="13.9"/>
+    <row r="259" customFormat="1" ht="13.9"/>
+    <row r="260" customFormat="1" ht="13.9"/>
+    <row r="261" customFormat="1" ht="13.9"/>
+    <row r="262" customFormat="1" ht="13.9"/>
+    <row r="263" customFormat="1" ht="13.9"/>
+    <row r="264" customFormat="1" ht="13.9"/>
+    <row r="265" customFormat="1" ht="13.9"/>
+    <row r="266" customFormat="1" ht="13.9"/>
+    <row r="267" customFormat="1" ht="13.9"/>
+    <row r="268" customFormat="1" ht="13.9"/>
+    <row r="269" customFormat="1" ht="13.9"/>
+    <row r="270" customFormat="1" ht="13.9"/>
+    <row r="271" customFormat="1" ht="13.9"/>
+    <row r="272" customFormat="1" ht="13.9"/>
+    <row r="273" customFormat="1" ht="13.9"/>
+    <row r="274" customFormat="1" ht="13.9"/>
+    <row r="275" customFormat="1" ht="13.9"/>
+    <row r="276" customFormat="1" ht="13.9"/>
+    <row r="277" customFormat="1" ht="13.9"/>
+    <row r="278" customFormat="1" ht="13.9"/>
+    <row r="279" customFormat="1" ht="13.9"/>
+    <row r="280" customFormat="1" ht="13.9"/>
+    <row r="281" customFormat="1" ht="13.9"/>
+    <row r="282" customFormat="1" ht="13.9"/>
+    <row r="283" customFormat="1" ht="13.9"/>
+    <row r="284" customFormat="1" ht="13.9"/>
+    <row r="285" customFormat="1" ht="13.9"/>
+    <row r="286" customFormat="1" ht="13.9"/>
+    <row r="287" customFormat="1" ht="13.9"/>
+    <row r="288" customFormat="1" ht="13.9"/>
+    <row r="289" customFormat="1" ht="13.9"/>
+    <row r="290" customFormat="1" ht="13.9"/>
+    <row r="291" customFormat="1" ht="13.9"/>
+    <row r="292" customFormat="1" ht="13.9"/>
+    <row r="293" customFormat="1" ht="13.9"/>
+    <row r="294" customFormat="1" ht="13.9"/>
+    <row r="295" customFormat="1" ht="13.9"/>
+    <row r="296" customFormat="1" ht="13.9"/>
+    <row r="297" customFormat="1" ht="13.9"/>
+    <row r="298" customFormat="1" ht="13.9"/>
+    <row r="299" customFormat="1" ht="13.9"/>
+    <row r="300" customFormat="1" ht="13.9"/>
+    <row r="301" customFormat="1" ht="13.9"/>
+    <row r="302" customFormat="1" ht="13.9"/>
+    <row r="303" customFormat="1" ht="13.9"/>
+    <row r="304" customFormat="1" ht="13.9"/>
+    <row r="305" customFormat="1" ht="13.9"/>
+    <row r="306" customFormat="1" ht="13.9"/>
+    <row r="307" customFormat="1" ht="13.9"/>
+    <row r="308" customFormat="1" ht="13.9"/>
+    <row r="309" customFormat="1" ht="13.9"/>
+    <row r="310" customFormat="1" ht="13.9"/>
+    <row r="311" customFormat="1" ht="13.9"/>
+    <row r="312" customFormat="1" ht="13.9"/>
+    <row r="313" customFormat="1" ht="13.9"/>
+    <row r="314" customFormat="1" ht="13.9"/>
+    <row r="315" customFormat="1" ht="13.9"/>
+    <row r="316" customFormat="1" ht="13.9"/>
+    <row r="317" customFormat="1" ht="13.9"/>
+    <row r="318" customFormat="1" ht="13.9"/>
+    <row r="319" customFormat="1" ht="13.9"/>
+    <row r="320" customFormat="1" ht="13.9"/>
+    <row r="321" customFormat="1" ht="13.9"/>
+    <row r="322" customFormat="1" ht="13.9"/>
+    <row r="323" customFormat="1" ht="13.9"/>
+    <row r="324" customFormat="1" ht="13.9"/>
+    <row r="325" customFormat="1" ht="13.9"/>
+    <row r="326" customFormat="1" ht="13.9"/>
+    <row r="327" customFormat="1" ht="13.9"/>
+    <row r="328" customFormat="1" ht="13.9"/>
+    <row r="329" customFormat="1" ht="13.9"/>
+    <row r="330" customFormat="1" ht="13.9"/>
+    <row r="331" customFormat="1" ht="13.9"/>
+    <row r="332" customFormat="1" ht="13.9"/>
+    <row r="333" customFormat="1" ht="13.9"/>
+    <row r="334" customFormat="1" ht="13.9"/>
+    <row r="335" customFormat="1" ht="13.9"/>
+    <row r="336" customFormat="1" ht="13.9"/>
+    <row r="337" customFormat="1" ht="13.9"/>
+    <row r="338" customFormat="1" ht="13.9"/>
+    <row r="339" customFormat="1" ht="13.9"/>
+    <row r="340" customFormat="1" ht="13.9"/>
+    <row r="341" customFormat="1" ht="13.9"/>
+    <row r="342" customFormat="1" ht="13.9"/>
+    <row r="343" customFormat="1" ht="13.9"/>
+    <row r="344" customFormat="1" ht="13.9"/>
+    <row r="345" customFormat="1" ht="13.9"/>
+    <row r="346" customFormat="1" ht="13.9"/>
+    <row r="347" customFormat="1" ht="13.9"/>
+    <row r="348" customFormat="1" ht="13.9"/>
+    <row r="349" customFormat="1" ht="13.9"/>
+    <row r="350" customFormat="1" ht="13.9"/>
+    <row r="351" customFormat="1" ht="13.9"/>
+    <row r="352" customFormat="1" ht="13.9"/>
+    <row r="353" customFormat="1" ht="13.9"/>
+    <row r="354" customFormat="1" ht="13.9"/>
+    <row r="355" customFormat="1" ht="13.9"/>
+    <row r="356" customFormat="1" ht="13.9"/>
+    <row r="357" customFormat="1" ht="13.9"/>
+    <row r="358" customFormat="1" ht="13.9"/>
+    <row r="359" customFormat="1" ht="13.9"/>
+    <row r="360" customFormat="1" ht="13.9"/>
+    <row r="361" customFormat="1" ht="13.9"/>
+    <row r="362" customFormat="1" ht="13.9"/>
+    <row r="363" customFormat="1" ht="13.9"/>
+    <row r="364" customFormat="1" ht="13.9"/>
+    <row r="365" customFormat="1" ht="13.9"/>
+    <row r="366" customFormat="1" ht="13.9"/>
+    <row r="367" customFormat="1" ht="13.9"/>
+    <row r="368" customFormat="1" ht="13.9"/>
+    <row r="369" customFormat="1" ht="13.9"/>
+    <row r="370" customFormat="1" ht="13.9"/>
+    <row r="371" customFormat="1" ht="13.9"/>
+    <row r="372" customFormat="1" ht="13.9"/>
+    <row r="373" customFormat="1" ht="13.9"/>
+    <row r="374" customFormat="1" ht="13.9"/>
+    <row r="375" customFormat="1" ht="13.9"/>
+    <row r="376" customFormat="1" ht="13.9"/>
+    <row r="377" customFormat="1" ht="13.9"/>
+    <row r="378" customFormat="1" ht="13.9"/>
+    <row r="379" customFormat="1" ht="13.9"/>
+    <row r="380" customFormat="1" ht="13.9"/>
+    <row r="381" customFormat="1" ht="13.9"/>
+    <row r="382" customFormat="1" ht="13.9"/>
+    <row r="383" customFormat="1" ht="13.9"/>
+    <row r="384" customFormat="1" ht="13.9"/>
+    <row r="385" customFormat="1" ht="13.9"/>
+    <row r="386" customFormat="1" ht="13.9"/>
+    <row r="387" customFormat="1" ht="13.9"/>
+    <row r="388" customFormat="1" ht="13.9"/>
+    <row r="389" customFormat="1" ht="13.9"/>
+    <row r="390" customFormat="1" ht="13.9"/>
+    <row r="391" customFormat="1" ht="13.9"/>
+    <row r="392" customFormat="1" ht="13.9"/>
+    <row r="393" customFormat="1" ht="13.9"/>
+    <row r="394" customFormat="1" ht="13.9"/>
+    <row r="395" customFormat="1" ht="13.9"/>
+    <row r="396" customFormat="1" ht="13.9"/>
+    <row r="397" customFormat="1" ht="13.9"/>
+    <row r="398" customFormat="1" ht="13.9"/>
+    <row r="399" customFormat="1" ht="13.9"/>
+    <row r="400" customFormat="1" ht="13.9"/>
+    <row r="401" customFormat="1" ht="13.9"/>
+    <row r="402" customFormat="1" ht="13.9"/>
+    <row r="403" customFormat="1" ht="13.9"/>
+    <row r="404" customFormat="1" ht="13.9"/>
+    <row r="405" customFormat="1" ht="13.9"/>
+    <row r="406" customFormat="1" ht="13.9"/>
+    <row r="407" customFormat="1" ht="13.9"/>
+    <row r="408" customFormat="1" ht="13.9"/>
+    <row r="409" customFormat="1" ht="13.9"/>
+    <row r="410" customFormat="1" ht="13.9"/>
+    <row r="411" customFormat="1" ht="13.9"/>
+    <row r="412" customFormat="1" ht="13.9"/>
+    <row r="413" customFormat="1" ht="13.9"/>
+    <row r="414" customFormat="1" ht="13.9"/>
+    <row r="415" customFormat="1" ht="13.9"/>
+    <row r="416" customFormat="1" ht="13.9"/>
+    <row r="417" customFormat="1" ht="13.9"/>
+    <row r="418" customFormat="1" ht="13.9"/>
+    <row r="419" customFormat="1" ht="13.9"/>
+    <row r="420" customFormat="1" ht="13.9"/>
+    <row r="421" customFormat="1" ht="13.9"/>
+    <row r="422" customFormat="1" ht="13.9"/>
+    <row r="423" customFormat="1" ht="13.9"/>
+    <row r="424" customFormat="1" ht="13.9"/>
+    <row r="425" customFormat="1" ht="13.9"/>
+    <row r="426" customFormat="1" ht="13.9"/>
+    <row r="427" customFormat="1" ht="13.9"/>
+    <row r="428" customFormat="1" ht="13.9"/>
+    <row r="429" customFormat="1" ht="13.9"/>
+    <row r="430" customFormat="1" ht="13.9"/>
+    <row r="431" customFormat="1" ht="13.9"/>
+    <row r="432" customFormat="1" ht="13.9"/>
+    <row r="433" customFormat="1" ht="13.9"/>
+    <row r="434" customFormat="1" ht="13.9"/>
+    <row r="435" customFormat="1" ht="13.9"/>
+    <row r="436" customFormat="1" ht="13.9"/>
+    <row r="437" customFormat="1" ht="13.9"/>
+    <row r="438" customFormat="1" ht="13.9"/>
+    <row r="439" customFormat="1" ht="13.9"/>
+    <row r="440" customFormat="1" ht="13.9"/>
+    <row r="441" customFormat="1" ht="13.9"/>
+    <row r="442" customFormat="1" ht="13.9"/>
+    <row r="443" customFormat="1" ht="13.9"/>
+    <row r="444" customFormat="1" ht="13.9"/>
+    <row r="445" customFormat="1" ht="13.9"/>
+    <row r="446" customFormat="1" ht="13.9"/>
+    <row r="447" customFormat="1" ht="13.9"/>
+    <row r="448" customFormat="1" ht="13.9"/>
+    <row r="449" customFormat="1" ht="13.9"/>
+    <row r="450" customFormat="1" ht="13.9"/>
+    <row r="451" customFormat="1" ht="13.9"/>
+    <row r="452" customFormat="1" ht="13.9"/>
+    <row r="453" customFormat="1" ht="13.9"/>
+    <row r="454" customFormat="1" ht="13.9"/>
+    <row r="455" customFormat="1" ht="13.9"/>
+    <row r="456" customFormat="1" ht="13.9"/>
+    <row r="457" customFormat="1" ht="13.9"/>
+    <row r="458" customFormat="1" ht="13.9"/>
+    <row r="459" customFormat="1" ht="13.9"/>
+    <row r="460" customFormat="1" ht="13.9"/>
+    <row r="461" customFormat="1" ht="13.9"/>
+    <row r="462" customFormat="1" ht="13.9"/>
+    <row r="463" customFormat="1" ht="13.9"/>
+    <row r="464" customFormat="1" ht="13.9"/>
+    <row r="465" customFormat="1" ht="13.9"/>
+    <row r="466" customFormat="1" ht="13.9"/>
+    <row r="467" customFormat="1" ht="13.9"/>
+    <row r="468" customFormat="1" ht="13.9"/>
+    <row r="469" customFormat="1" ht="13.9"/>
+    <row r="470" customFormat="1" ht="13.9"/>
+    <row r="471" customFormat="1" ht="13.9"/>
+    <row r="472" customFormat="1" ht="13.9"/>
+    <row r="473" customFormat="1" ht="13.9"/>
+    <row r="474" customFormat="1" ht="13.9"/>
+    <row r="475" customFormat="1" ht="13.9"/>
+    <row r="476" customFormat="1" ht="13.9"/>
+    <row r="477" customFormat="1" ht="13.9"/>
+    <row r="478" customFormat="1" ht="13.9"/>
+    <row r="479" customFormat="1" ht="13.9"/>
+    <row r="480" customFormat="1" ht="13.9"/>
+    <row r="481" customFormat="1" ht="13.9"/>
+    <row r="482" customFormat="1" ht="13.9"/>
+    <row r="483" customFormat="1" ht="13.9"/>
+    <row r="484" customFormat="1" ht="13.9"/>
+    <row r="485" customFormat="1" ht="13.9"/>
+    <row r="486" customFormat="1" ht="13.9"/>
+    <row r="487" customFormat="1" ht="13.9"/>
+    <row r="488" customFormat="1" ht="13.9"/>
+    <row r="489" customFormat="1" ht="13.9"/>
+    <row r="490" customFormat="1" ht="13.9"/>
+    <row r="491" customFormat="1" ht="13.9"/>
+    <row r="492" customFormat="1" ht="13.9"/>
+    <row r="493" customFormat="1" ht="13.9"/>
+    <row r="494" customFormat="1" ht="13.9"/>
+    <row r="495" customFormat="1" ht="13.9"/>
+    <row r="496" customFormat="1" ht="13.9"/>
+    <row r="497" customFormat="1" ht="13.9"/>
+    <row r="498" customFormat="1" ht="13.9"/>
+    <row r="499" customFormat="1" ht="13.9"/>
+    <row r="500" customFormat="1" ht="13.9"/>
+    <row r="501" customFormat="1" ht="13.9"/>
+    <row r="502" customFormat="1" ht="13.9"/>
+    <row r="503" customFormat="1" ht="13.9"/>
+    <row r="504" customFormat="1" ht="13.9"/>
+    <row r="505" customFormat="1" ht="13.9"/>
+    <row r="506" customFormat="1" ht="13.9"/>
+    <row r="507" customFormat="1" ht="13.9"/>
+    <row r="508" customFormat="1" ht="13.9"/>
+    <row r="509" customFormat="1" ht="13.9"/>
+    <row r="510" customFormat="1" ht="13.9"/>
+    <row r="511" customFormat="1" ht="13.9"/>
+    <row r="512" customFormat="1" ht="13.9"/>
+    <row r="513" customFormat="1" ht="13.9"/>
+    <row r="514" customFormat="1" ht="13.9"/>
+    <row r="515" customFormat="1" ht="13.9"/>
+    <row r="516" customFormat="1" ht="13.9"/>
+    <row r="517" customFormat="1" ht="13.9"/>
+    <row r="518" customFormat="1" ht="13.9"/>
+    <row r="519" customFormat="1" ht="13.9"/>
+    <row r="520" customFormat="1" ht="13.9"/>
+    <row r="521" customFormat="1" ht="13.9"/>
+    <row r="522" customFormat="1" ht="13.9"/>
+    <row r="523" customFormat="1" ht="13.9"/>
+    <row r="524" customFormat="1" ht="13.9"/>
+    <row r="525" customFormat="1" ht="13.9"/>
+    <row r="526" customFormat="1" ht="13.9"/>
+    <row r="527" customFormat="1" ht="13.9"/>
+    <row r="528" customFormat="1" ht="13.9"/>
+    <row r="529" customFormat="1" ht="13.9"/>
+    <row r="530" customFormat="1" ht="13.9"/>
+    <row r="531" customFormat="1" ht="13.9"/>
+    <row r="532" customFormat="1" ht="13.9"/>
+    <row r="533" customFormat="1" ht="13.9"/>
+    <row r="534" customFormat="1" ht="13.9"/>
+    <row r="535" customFormat="1" ht="13.9"/>
+    <row r="536" customFormat="1" ht="13.9"/>
+    <row r="537" customFormat="1" ht="13.9"/>
+    <row r="538" customFormat="1" ht="13.9"/>
+    <row r="539" customFormat="1" ht="13.9"/>
+    <row r="540" customFormat="1" ht="13.9"/>
+    <row r="541" customFormat="1" ht="13.9"/>
+    <row r="542" customFormat="1" ht="13.9"/>
+    <row r="543" customFormat="1" ht="13.9"/>
+    <row r="544" customFormat="1" ht="13.9"/>
+    <row r="545" customFormat="1" ht="13.9"/>
+    <row r="546" customFormat="1" ht="13.9"/>
+    <row r="547" customFormat="1" ht="13.9"/>
+    <row r="548" customFormat="1" ht="13.9"/>
+    <row r="549" customFormat="1" ht="13.9"/>
+    <row r="550" customFormat="1" ht="13.9"/>
+    <row r="551" customFormat="1" ht="13.9"/>
+    <row r="552" customFormat="1" ht="13.9"/>
+    <row r="553" customFormat="1" ht="13.9"/>
+    <row r="554" customFormat="1" ht="13.9"/>
+    <row r="555" customFormat="1" ht="13.9"/>
+    <row r="556" customFormat="1" ht="13.9"/>
+    <row r="557" customFormat="1" ht="13.9"/>
+    <row r="558" customFormat="1" ht="13.9"/>
+    <row r="559" customFormat="1" ht="13.9"/>
+    <row r="560" customFormat="1" ht="13.9"/>
+    <row r="561" customFormat="1" ht="13.9"/>
+    <row r="562" customFormat="1" ht="13.9"/>
+    <row r="563" customFormat="1" ht="13.9"/>
+    <row r="564" customFormat="1" ht="13.9"/>
+    <row r="565" customFormat="1" ht="13.9"/>
+    <row r="566" customFormat="1" ht="13.9"/>
+    <row r="567" customFormat="1" ht="13.9"/>
+    <row r="568" customFormat="1" ht="13.9"/>
+    <row r="569" customFormat="1" ht="13.9"/>
+    <row r="570" customFormat="1" ht="13.9"/>
+    <row r="571" customFormat="1" ht="13.9"/>
+    <row r="572" customFormat="1" ht="13.9"/>
+    <row r="573" customFormat="1" ht="13.9"/>
+    <row r="574" customFormat="1" ht="13.9"/>
+    <row r="575" customFormat="1" ht="13.9"/>
+    <row r="576" customFormat="1" ht="13.9"/>
+    <row r="577" customFormat="1" ht="13.9"/>
+    <row r="578" customFormat="1" ht="13.9"/>
+    <row r="579" customFormat="1" ht="13.9"/>
+    <row r="580" customFormat="1" ht="13.9"/>
+    <row r="581" customFormat="1" ht="13.9"/>
+    <row r="582" customFormat="1" ht="13.9"/>
+    <row r="583" customFormat="1" ht="13.9"/>
+    <row r="584" customFormat="1" ht="13.9"/>
+    <row r="585" customFormat="1" ht="13.9"/>
+    <row r="586" customFormat="1" ht="13.9"/>
+    <row r="587" customFormat="1" ht="13.9"/>
+    <row r="588" customFormat="1" ht="13.9"/>
+    <row r="589" customFormat="1" ht="13.9"/>
+    <row r="590" customFormat="1" ht="13.9"/>
+    <row r="591" customFormat="1" ht="13.9"/>
+    <row r="592" customFormat="1" ht="13.9"/>
+    <row r="593" customFormat="1" ht="13.9"/>
+    <row r="594" customFormat="1" ht="13.9"/>
+    <row r="595" customFormat="1" ht="13.9"/>
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
@@ -2814,7 +2852,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="P10:P11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/猫咪档案.xlsx
+++ b/pages/猫咪档案.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\宣春宇\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\宣春宇\Desktop\miniprogram-master\miniprogram\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA224F3F-BA4B-42FD-AB91-A600DD6FE445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5BC37B-8CD4-4AAF-9803-6EE1D69AAAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$T$112</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="462">
   <si>
     <t>建立档案：2019-03-30</t>
   </si>
@@ -317,9 +327,6 @@
     <t>毛色分类</t>
   </si>
   <si>
-    <t>出没地点</t>
-  </si>
-  <si>
     <t>性别</t>
   </si>
   <si>
@@ -377,58 +384,22 @@
     <t>健康</t>
   </si>
   <si>
-    <t>两侧脸颊白，眼鼻周黄，前额黑帽子，胸脯和前腿都是白色</t>
-  </si>
-  <si>
-    <t>疑似是小怂包和中分的妈妈</t>
-  </si>
-  <si>
     <t>花妹妹</t>
   </si>
   <si>
     <t>黄眼睛，胸脯为白色，额头上有黄黑相间的中分花纹</t>
   </si>
   <si>
-    <t>新加入西二的猫猫</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
     <t>胖虎</t>
   </si>
   <si>
-    <t>黄眼全身梨花色，胖圆脸，看起来凶，贪吃但绅士，会等西二的其他猫咪吃完才吃</t>
-  </si>
-  <si>
-    <t>和花姐姐小怂包关系都很好，礼让照顾中分</t>
-  </si>
-  <si>
     <t>小怂包</t>
   </si>
   <si>
-    <t>全身黑，鼻上一点白，白围脖，白手套，后腿手套长，胆小怕人</t>
-  </si>
-  <si>
-    <t>花姐姐的孩子</t>
-  </si>
-  <si>
-    <t>中分</t>
-  </si>
-  <si>
-    <t>头顶中分，尾巴黑，全身白</t>
-  </si>
-  <si>
-    <t>花姐姐的孩子，与小怂包不是同一胎</t>
-  </si>
-  <si>
     <t>媒婆</t>
-  </si>
-  <si>
-    <t>体白，尾黑，背部有少许花纹，额头也有黄黑相间的中分花纹，右鼻孔右侧有一颗“痣”；胆大，不怕人，在人前会揣手手</t>
-  </si>
-  <si>
-    <t>在西二与西一间游荡的猫咪，偶尔加入西二家庭</t>
   </si>
   <si>
     <t>大中分</t>
@@ -463,26 +434,6 @@
   </si>
   <si>
     <t>图书馆</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFED7B30"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄鼻子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玳瑁猫，尾巴纯黑，右后腿纯黄（像鸡腿），白手套，胖，比较呆</t>
-    </r>
   </si>
   <si>
     <t>斜刘海</t>
@@ -634,29 +585,6 @@
     <t>警长</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFED7B30"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鼻子周围三角白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，白围脖白手套，浑身黑，毛滑亮顺，撒娇</t>
-    </r>
-  </si>
-  <si>
-    <t>铁皮或假面的孩子</t>
-  </si>
-  <si>
     <t>铁皮</t>
   </si>
   <si>
@@ -691,35 +619,6 @@
   </si>
   <si>
     <t>思源西</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全身</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFED7B30"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>狸花色（包括脚）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，圆耳，怕人，躲车下</t>
-    </r>
   </si>
   <si>
     <t>彭康</t>
@@ -783,12 +682,6 @@
     </r>
   </si>
   <si>
-    <t>贵族哥哥</t>
-  </si>
-  <si>
-    <t>白手套，白胸脯连肚皮，身上狸花色，巨黏人，活动范围广（崇实-钱院-南洋），与被领养的贵族妹妹关系好，与彭康玳瑁关系一般，因玳瑁抢吃的故没在彭康定居</t>
-  </si>
-  <si>
     <t>贵族妹妹的哥哥</t>
   </si>
   <si>
@@ -921,14 +814,86 @@
     <t>贵族妹妹</t>
   </si>
   <si>
+    <t>许久未见</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>额头以下，</t>
+      <t>ucky</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯白</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>通体白的异瞳小猫，在校外出了车祸被一位阿姨捡到西一照顾喂食，仙喵发现后送往医院救治，现于仙喵家养伤</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙龙的好朋友</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e8</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>留学</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>极其粘人，精力充沛，喜欢叫，可撸</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>通体白色，头顶有灰色块的异瞳小猫。笨蛋小猫钻进了车里出不来，叫了一天。发现后经由保卫处和好心老师的协助救出，后由仙喵送往医院检查，现于仙喵家接受照顾。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>在校</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵星</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全身</t>
     </r>
     <r>
       <rPr>
@@ -937,7 +902,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>胸脯腹部四肢全白</t>
+      <t>狸花色（包括脚）</t>
     </r>
     <r>
       <rPr>
@@ -946,18 +911,1138 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>，尾巴黄黑环，尾尖黑色，气质高雅，总是和贵族哥哥一起出现</t>
+      <t>，圆耳，怕人，躲车下.后因误食老鼠药或被车碾压，现已去往喵星。</t>
     </r>
-  </si>
-  <si>
-    <t>贵族哥哥的妹妹</t>
-  </si>
-  <si>
-    <t>许久未见</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>送养</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆小但亲人，活泼机灵</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗蛋儿</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇实</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>活泼好动，亲人，但调皮，不建议撸它</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>小奶猫，身体黑色，面部整体也是黑色，鼻子和嘴巴处有一个白色的圆圈，围出黑色的小胡子，有白色围脖。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>假面的儿子</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>玳瑁</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲人乖巧，聪明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>黄鼻子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玳瑁猫，尾巴纯黑，右后腿纯黄（像鸡腿），白手套，常年守在图书馆门口的乖巧猫咪</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>假面的姐妹</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>在校</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭康</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖巧亲人，可撸</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鼻，白围脖，白手套玳瑁猫，身上灰多，尾巴环黄到黑过度。非常漂亮。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>渣贵的妹妹</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>休学</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>两侧脸颊白，眼鼻周黄，前额黑帽子，胸脯和前腿都是白色。西二的大家长。赶走了花妹妹和喵桑，收留了多次示弱认怂的胖虎。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怂包，小中分的妈妈，胖虎的邻居</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常亲人，很乖，可撸</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆小，喂食时较为亲人</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾试图入住西二但被花姐姐赶走</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲英楼与西一之间</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住地</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙喵家</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲人乖巧，可撸</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>原崇实大家长。狗蛋儿和警长的妈妈。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲英楼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鼻子周围三角白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，白围脖白手套，浑身黑，毛滑亮顺，撒娇.妈宝男，不爱干净，全靠妈妈给舔毛，后因狗蛋儿出生被妈妈轰走，远离妈妈后每天脏兮兮的。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗蛋儿的哥哥，假面的儿子，与渣贵交恶。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙龙</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘猫</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>新家</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎头虎脑，长得很有特点的橘猫，身上有环状深色花纹。</t>
+  </si>
+  <si>
+    <t>活泼淘气，亲人</t>
+  </si>
+  <si>
+    <t>体白，尾黑，背部有少许花纹，额头也有黄黑相间的中分花纹，右鼻孔右侧有一颗“痣”；胆大，不怕人，在人前会揣手手</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常亲人乖巧，可撸</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>与世无争，因性格太好且不记仇经常被别的猫猫欺负。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵桑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸夫工程馆</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体白色，尾巴黑色，额头有黑色的中分花纹，鼻子与嘴之间有一道黑色花纹。</t>
+  </si>
+  <si>
+    <t>怕人，不与人亲近，凶，不要撸它</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>小中分的爸爸，与花姐姐、渣贵交恶，与馆长关系好。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄眼全身梨花色，胖圆脸，看起来凶，贪吃但绅士，会等西二的其他猫咪吃完才吃，靠认怂获取花姐姐信任得以定居西二。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆小，很怕人，不要撸它，强行撸可能会因害怕有自卫性反击行为。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>西二一家子的邻居</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>七七</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>前爪有狸花花纹，领口白色，后背整体橘色，有些黑色条纹的玳瑁猫。因为性格很好，被发现后很快便被领养走的乖巧小猫。</t>
+  </si>
+  <si>
+    <t>极度活泼亲人，胆子很大，可撸</t>
+  </si>
+  <si>
+    <t>球球</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体黑色，白鼻梁，一圈白嘴唇上有一块黑点，白领口，脚掌白色的奶牛猫</t>
+  </si>
+  <si>
+    <t>喜欢自己一个人玩，比较独立</t>
+  </si>
+  <si>
+    <t>糖糖</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>额头有刘海，黄色中夹杂一抹黑色，背部有较少花纹</t>
+  </si>
+  <si>
+    <t>活泼爱玩，聪明</t>
+  </si>
+  <si>
+    <t>假面的女儿</t>
+  </si>
+  <si>
+    <t>跳跳</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>有左黄右黑两种颜色的中分刘海,整体白色，背部有较多花纹</t>
+  </si>
+  <si>
+    <t>淘气，喜欢找兄弟姐妹打架玩</t>
+  </si>
+  <si>
+    <t>假面的女儿</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>香香</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体黑色，白色领口，嘴周围一圈白色，白色脚趾的奶牛猫</t>
+  </si>
+  <si>
+    <t>调皮，喜欢打架玩</t>
+  </si>
+  <si>
+    <t>全身黑，鼻上一点白，白围脖，白手套，后腿手套长，胆小怕人，粘妈妈。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆小怕人</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>花姐姐的女儿，小中分的姐姐，胖虎的邻居。</t>
+  </si>
+  <si>
+    <t>头顶中分，尾巴黑，全身白；贪吃，抗击打能力强，在吃饭时秉持你打你的我吃我的原则，随便你打反正我要吃饭，使得胖虎小怂包等猫无奈让它先吃。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>活泼，较为亲人</t>
+  </si>
+  <si>
+    <t>花姐姐的儿子，小怂包的弟弟，胖虎的邻居。</t>
+  </si>
+  <si>
+    <t>小中分</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>渣贵</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校游荡，偶尔定居彭康</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>白手套，白胸脯连肚皮，身上狸花色，小渣猫，隔三岔五回去看贵族妹妹，满学校乱跑。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>差，会假装亲人但随时翻脸，不要撸它</t>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunshine</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘猫</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>解刨楼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>在校</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身花纹，长相美艳。</t>
+  </si>
+  <si>
+    <t>胆小怕人，不可摸。</t>
+  </si>
+  <si>
+    <t>是薛定谔的孩子，是暖暖、红鼻子、面包、白手套的妈妈，与解剖楼猫猫一起活动。</t>
+  </si>
+  <si>
+    <t>白白</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活区10号楼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>休学</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身是白色。</t>
+  </si>
+  <si>
+    <t>胆大可摸</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>白手套</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>狸花</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>左半边脸为黑色，右半边为黄色，嘴巴和鼻子都是白色。是解剖楼叔叔养来捉老鼠的猫。</t>
+  </si>
+  <si>
+    <t>胆大但是怕人，不可摸。</t>
+  </si>
+  <si>
+    <t>是sunshine的孩子，与解剖楼猫猫一起活动</t>
+  </si>
+  <si>
+    <t>白围脖</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>财经主楼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个爪子和鼻子脖子是白色。</t>
+  </si>
+  <si>
+    <t>胆小</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎纹的孩子,和小橘是一窝</t>
+  </si>
+  <si>
+    <t>豹纹</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个爪子和脖子是白色,其余部位是狸花。</t>
+  </si>
+  <si>
+    <t>胆大霸道,不可摸,叫声很奶。</t>
+  </si>
+  <si>
+    <t>是不苦的好朋友</t>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>财四</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狸花，身体整体呈黑色花纹，面部整体黑色，粉鼻头，白色鼻子。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖巧亲人不闹腾，可撸</t>
+  </si>
+  <si>
+    <t>咪咪的儿子</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>不苦</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘猫</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>财经主楼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>在校</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身白色居多,头和尾巴,背上一些区域是橘色。</t>
+  </si>
+  <si>
+    <t>是豹纹的好朋友</t>
+  </si>
+  <si>
+    <t>胆小瘦弱,有时可摸。</t>
+  </si>
+  <si>
+    <t>纯黑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗濂大院</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛黑色,眼睛是绿色</t>
+  </si>
+  <si>
+    <t>胆小不让摸,很自由</t>
+  </si>
+  <si>
+    <t>和宗濂大院所有猫咪一起生活</t>
+  </si>
+  <si>
+    <t>和宗濂大院所有猫咪一起生活</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>启德花园</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体全为白色。</t>
+  </si>
+  <si>
+    <t>胆小怕人，好战，喜欢四处觅食。</t>
+  </si>
+  <si>
+    <t>与罗恩关系好</t>
+  </si>
+  <si>
+    <t>大呆</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>狸花</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛狸花,身上大片黑色花纹,体型较大</t>
+  </si>
+  <si>
+    <t>胆小不让摸,有点呆,贪吃</t>
+  </si>
+  <si>
+    <t>大黄</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础实验中心</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>休学</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体全为橘色花纹。</t>
+  </si>
+  <si>
+    <t>胆小怕人。</t>
+  </si>
+  <si>
+    <t>大胖橘</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活区3号楼前</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>肚子白色,橘色花纹不规则。</t>
+  </si>
+  <si>
+    <t>胆大粘人,有时可摸,打架受伤</t>
+  </si>
+  <si>
+    <t>和花漂亮是夫妻</t>
+  </si>
+  <si>
+    <t>刀哥</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴黑色，脸上有两点为黑色，其余全白。</t>
+  </si>
+  <si>
+    <t>可撸，比较凶狠，但是对人比较友善。</t>
+  </si>
+  <si>
+    <t>本来是财主的霸主，后来经常挨打，浑身是伤。</t>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>玳瑁</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>四处游荡</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>四肢和腹部、嘴巴为白色，其余部位黑黄交替。</t>
+  </si>
+  <si>
+    <t>胆小怕人，喜欢四处觅食。</t>
+  </si>
+  <si>
+    <t>点点鼻</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体多为白色，头顶黑色斑块，鼻子有黑点。</t>
+  </si>
+  <si>
+    <t>二黄</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体多为橘色花纹，四肢白色，经常脏兮兮的。</t>
+  </si>
+  <si>
+    <t>二宁</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>财四</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格温顺、猫德甚佳，喜欢被人抱，懂得收爪子，喜欢扑人，非常能吃。能在任何地方睡着。</t>
+  </si>
+  <si>
+    <t>小狸花，，身体为黑色狸花，背部有大块黑色，黑鼻头。四只肉垫均为黑色。肚皮上有黑色斑点。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咪的女儿</t>
+  </si>
+  <si>
+    <t>烦烦</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>狸花</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>在校</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛,全身黑色狸花</t>
+  </si>
+  <si>
+    <t>胆小 让摸</t>
+  </si>
+  <si>
+    <t>和宗濂大院所有猫咪一起生活,</t>
+  </si>
+  <si>
+    <t>葛优</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>四处游荡</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>四肢和腹部、嘴巴为白色，鼻子左侧有黑点。</t>
+  </si>
+  <si>
+    <t>胆大，较自由，可摸摸，经常爬树、蹲坐在别人的车上。</t>
+  </si>
+  <si>
+    <t>较为自由，也不与别猫打架。</t>
+  </si>
+  <si>
+    <t>咕咕</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>财四</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白猫，和咪咪非常相似，身体为白底黑背，俗称“乌云盖雪”，四个爪子都有白手套。粉鼻头，白鼻子。肉垫为粉黑交替。鼻子和嘴巴上有黑色胎记。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾气不好，不喜欢被人抱，爪子锋利有劲。喜欢来回跑跳，非常活泼。</t>
+  </si>
+  <si>
+    <t>黑狸</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身黑色狸花</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点怕人，叫声很奶，目前是财主的霸主，很霸道。</t>
+  </si>
+  <si>
+    <t>是财主的霸主，与虎纹在一起，是夫妻。</t>
+  </si>
+  <si>
+    <t>黑仔</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>财经主楼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵星</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身黑居多,四个爪子和肚皮是白色。</t>
+  </si>
+  <si>
+    <t>胆小瘦弱,不可摸。</t>
+  </si>
+  <si>
+    <t>是咪咪的孩子,和小眼屎/小三花/三七分是兄弟姐妹</t>
+  </si>
+  <si>
+    <t>横眉</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗濂大院</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛,身上大片黑色花纹</t>
+  </si>
+  <si>
+    <t>胆小不让摸</t>
+  </si>
+  <si>
+    <t>和宗濂大院所有猫咪一起生活</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>红鼻子</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>解剖楼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>休学</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身白色居多，尾巴黄色，脸上右半边和头顶为黑色，左边一小块黄色。</t>
+  </si>
+  <si>
+    <t>胆小怕人，活跃好动。</t>
+  </si>
+  <si>
+    <t>是sunshine的孩子，与解剖楼猫猫一起活动。</t>
+  </si>
+  <si>
+    <t>蝴蝶结</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>玳瑁</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身黑色斑块较多，耳朵为黑色，像蝴蝶结。</t>
+  </si>
+  <si>
+    <t>胆小。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎纹</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>财主花园和财4楼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身为褐色狸花花纹。</t>
+  </si>
+  <si>
+    <t>胆大让摸，会打闹闹。</t>
+  </si>
+  <si>
+    <t>与黑狸是夫妻，是小橘和白围脖的妈妈。</t>
+  </si>
+  <si>
+    <t>花漂亮</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活区3号楼下</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>背上有不规则花纹。</t>
+  </si>
+  <si>
+    <t>胆小,有时可摸</t>
+  </si>
+  <si>
+    <t>和大胖橘是夫妻</t>
+  </si>
+  <si>
+    <t>杰克船长</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>校门口</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体白色居多，尾巴黑色狸花状，脸上左眼上方黑色板块、有眼上方黄色斑块。</t>
+  </si>
+  <si>
+    <t>脾气好，胆小怕人，但有时可以摸，经常在爬树。</t>
+  </si>
+  <si>
+    <t>疑似薛定谔的女儿</t>
+  </si>
+  <si>
+    <t>橘子</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘猫</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身橘色,鼻尖有黑点。</t>
+  </si>
+  <si>
+    <t>是三角板的孩子</t>
+  </si>
+  <si>
+    <t>掘地武士</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>是奶橘，橘色较浅。</t>
+  </si>
+  <si>
+    <t>比较粘人，有时可撸。</t>
+  </si>
+  <si>
+    <t>是薛定谔的孩子，与解剖楼猫猫一起活动。近期与面包一起活动</t>
+  </si>
+  <si>
+    <t>冷漠</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体全为橘色花纹，面相凶狠。</t>
+  </si>
+  <si>
+    <t>栗子</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶橘色,腹侧多白色,背侧多橘色。</t>
+  </si>
+  <si>
+    <t>胆大可摸,喜欢和虎纹一起玩,但是经常被嫌弃</t>
+  </si>
+  <si>
+    <t>虎纹的好朋友</t>
+  </si>
+  <si>
+    <t>罗恩</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体白色居多，尾巴黑色狸花状，鼻子左边有灰色斑块，右耳有斑块，全包眼线。</t>
+  </si>
+  <si>
+    <t>好战，经常在学校四处转，挑起战斗。</t>
+  </si>
+  <si>
+    <t>与杰克船长、委屈屈一起生活。</t>
+  </si>
+  <si>
+    <t>咪咪</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>大眼睛，白底黑背加上四只白手套，是经典的乌云踏雪，右后腿的白手套有部分黑色。</t>
+  </si>
+  <si>
+    <t>性格十分乖巧、温顺，会追着人要吃的但声音不大，喜欢被挠痒痒。是一个非常称职的猫妈妈，可撸</t>
+  </si>
+  <si>
+    <t>西区的“老人”，已经至少生育三胎</t>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴巴、脖子和肚皮为白色，其余为橘色花纹。</t>
+  </si>
+  <si>
+    <t>非常粘人，猫德学院优秀毕业生，可随便撸。</t>
+  </si>
+  <si>
+    <t>是sunshine的孩子，与解剖楼猫猫一起活动。近期与掘地武士一起活动</t>
+  </si>
+  <si>
+    <t>抹布</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛,身上大片黑色花纹</t>
+  </si>
+  <si>
+    <t>墨翠</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹闹</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>东配楼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>背上和四肢为橘色，嘴巴上面有一块橘色，其余为白色。</t>
+  </si>
+  <si>
+    <t>很粘人，会进教室和同学玩，声音很大，但是胆子很小，经常被其他猫欺负。</t>
+  </si>
+  <si>
+    <t>在东配楼活动，没有好朋友，经常被欺负。</t>
+  </si>
+  <si>
+    <t>暖暖</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身白色居多，头顶黄色。</t>
+  </si>
+  <si>
+    <t>是sunshine的孩子，因为天气寒冷、饥饿去了喵星。</t>
+  </si>
+  <si>
+    <t>蒲公英</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛狸花,身上大片白色</t>
+  </si>
+  <si>
+    <t>胆小不让摸。</t>
+  </si>
+  <si>
+    <t>三角板</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身白色居多,背上有黄色和黑色板块,脸上部有狸花斑块。</t>
+  </si>
+  <si>
+    <t>胆大,不可摸</t>
+  </si>
+  <si>
+    <t>橘子的妈妈</t>
+  </si>
+  <si>
+    <t>三七分</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身白居多,头顶黑色三七分,尾巴黑色。</t>
+  </si>
+  <si>
+    <t>胆大粘人。</t>
+  </si>
+  <si>
+    <t>是咪咪的孩子,和黑仔/小三花/小眼屎是兄弟姐妹,和小橘是好朋友</t>
+  </si>
+  <si>
+    <t>委屈屈</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体白色居多，右腹部白色，长相委屈。</t>
+  </si>
+  <si>
+    <t>与杰克船长、罗恩一起生活。</t>
+  </si>
+  <si>
+    <t>小黑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯黑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯黑色猫咪，2022年3月21日出生，四只肉垫均为黑色，周身有部分白色杂毛。</t>
+  </si>
+  <si>
+    <t>性格比较独立，经常独自行动，喜欢攀爬高的地方</t>
+  </si>
+  <si>
+    <t>咪咪的儿子</t>
+  </si>
+  <si>
+    <t>小花</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛,身上白色居多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胆小 </t>
+  </si>
+  <si>
+    <t>小橘</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>脖子和肚子是白色,其余为橘色。</t>
+  </si>
+  <si>
+    <t>胆大可摸,很粘人</t>
+  </si>
+  <si>
+    <t>虎纹的孩子,和白围脖是一窝,和三七分/小眼屎/小三花是好朋友</t>
+  </si>
+  <si>
+    <t>小狼崽</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狸花，2022年3月21日出生，身体狸花纹较浅，面部整体黑色，粉鼻头，白色鼻子笔者白毛部分较博士短。四只肉垫均为粉色。两只前爪的白手套较博士更多</t>
+  </si>
+  <si>
+    <t>性格十分活泼，非常好动、能吃，具有一定破坏力，可撸</t>
+  </si>
+  <si>
+    <t>小宁</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狸花，2022年3月21日出生，身体狸花纹路均匀，面部整体黑色，黑鼻头。四只肉垫均为黑色。肚皮上有均匀的黑色斑点。</t>
+  </si>
+  <si>
+    <t>性格十分乖巧、温顺，喜欢被人抱，可撸</t>
+  </si>
+  <si>
+    <t>小三花</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻子黑色,其他部位三种花色交替。</t>
+  </si>
+  <si>
+    <t>胆小怕人,非常调皮。</t>
+  </si>
+  <si>
+    <t>是咪咪的孩子,和黑仔/小眼屎/三七分是兄弟姐妹,和小橘是好朋友</t>
+  </si>
+  <si>
+    <t>小桃心</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>背上和脸上是狸花状,身上有个桃心。</t>
+  </si>
+  <si>
+    <t>是咪咪的孩子,和小小黑是一窝</t>
+  </si>
+  <si>
+    <t>小小黑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛,和咪咪很像。</t>
+  </si>
+  <si>
+    <t>胆小可爱</t>
+  </si>
+  <si>
+    <t>是咪咪的孩子,和小桃心是一窝</t>
+  </si>
+  <si>
+    <t>小眼屎</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身白居多,尾巴/右眼眼角/鼻子左侧是黑色。</t>
+  </si>
+  <si>
+    <t>胆大粘人,非常粘人。</t>
+  </si>
+  <si>
+    <t>是咪咪的孩子,和黑仔/小三花/三七分是兄弟姐妹</t>
+  </si>
+  <si>
+    <t>小椅子</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛狸花,身上大片黑色花纹</t>
+  </si>
+  <si>
+    <t>薛定谔</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>狸三花</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>是杰克船长、sunshine、掘地武士的妈妈。</t>
+  </si>
+  <si>
+    <t>一腿白黑狸</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条腿白色，肚皮白色。</t>
+  </si>
+  <si>
+    <t>胆大但是不让摸。</t>
+  </si>
+  <si>
+    <t>lucky的好朋友</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -966,9 +2051,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,6 +2155,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED7B30"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1285,7 +2391,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1302,7 +2408,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1390,20 +2496,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1457,6 +2560,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1490,19 +2631,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 着色 2" xfId="3" builtinId="34"/>
@@ -1783,9 +2911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -1844,22 +2972,22 @@
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="10"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="69"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="20"/>
       <c r="M3" s="21" t="s">
         <v>8</v>
@@ -1873,14 +3001,14 @@
       <c r="P3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="46"/>
+      <c r="Q3" s="43"/>
       <c r="R3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="44">
         <v>6</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="45" t="s">
         <v>13</v>
       </c>
       <c r="U3" s="76" t="s">
@@ -1890,19 +3018,19 @@
         <v>15</v>
       </c>
       <c r="W3" s="9"/>
-      <c r="X3" s="47">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="52" t="s">
+      <c r="X3" s="44">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="58" t="s">
+      <c r="AA3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="59" t="s">
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="60" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1926,40 +3054,40 @@
       <c r="P4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="46"/>
+      <c r="Q4" s="43"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="49">
+      <c r="S4" s="46">
         <v>5</v>
       </c>
-      <c r="T4" s="50" t="s">
+      <c r="T4" s="47" t="s">
         <v>22</v>
       </c>
       <c r="U4" s="77"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="61" t="s">
+      <c r="Y4" s="58" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="64"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="79"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="26" t="s">
@@ -1969,12 +3097,12 @@
       <c r="P5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="43"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="49">
+      <c r="S5" s="46">
         <v>4</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="47" t="s">
         <v>27</v>
       </c>
       <c r="U5" s="77"/>
@@ -2001,10 +3129,10 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="49">
+      <c r="S6" s="46">
         <v>3</v>
       </c>
-      <c r="T6" s="50" t="s">
+      <c r="T6" s="47" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="77" t="s">
@@ -2014,10 +3142,10 @@
         <v>30</v>
       </c>
       <c r="W6" s="9"/>
-      <c r="X6" s="47">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="52" t="s">
+      <c r="X6" s="44">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2042,23 +3170,23 @@
       <c r="P7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="52" t="s">
+      <c r="Q7" s="49" t="s">
         <v>34</v>
       </c>
       <c r="R7" s="3"/>
-      <c r="S7" s="49">
+      <c r="S7" s="46">
         <v>2</v>
       </c>
-      <c r="T7" s="50" t="s">
+      <c r="T7" s="47" t="s">
         <v>35</v>
       </c>
       <c r="U7" s="77"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="49">
+      <c r="X7" s="46">
         <v>2</v>
       </c>
-      <c r="Y7" s="62" t="s">
+      <c r="Y7" s="59" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2081,14 +3209,14 @@
       <c r="P8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="50" t="s">
         <v>38</v>
       </c>
       <c r="R8" s="3"/>
-      <c r="S8" s="49">
-        <v>1</v>
-      </c>
-      <c r="T8" s="50" t="s">
+      <c r="S8" s="46">
+        <v>1</v>
+      </c>
+      <c r="T8" s="47" t="s">
         <v>39</v>
       </c>
       <c r="U8" s="77" t="s">
@@ -2096,10 +3224,10 @@
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="49">
+      <c r="X8" s="46">
         <v>3</v>
       </c>
-      <c r="Y8" s="62" t="s">
+      <c r="Y8" s="59" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2122,23 +3250,23 @@
       <c r="P9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="54" t="s">
+      <c r="Q9" s="51" t="s">
         <v>43</v>
       </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="49">
-        <v>0</v>
-      </c>
-      <c r="T9" s="50" t="s">
+      <c r="S9" s="46">
+        <v>0</v>
+      </c>
+      <c r="T9" s="47" t="s">
         <v>44</v>
       </c>
       <c r="U9" s="77"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="49">
+      <c r="X9" s="46">
         <v>4</v>
       </c>
-      <c r="Y9" s="62" t="s">
+      <c r="Y9" s="59" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2163,23 +3291,23 @@
       <c r="P10" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="43" t="s">
         <v>48</v>
       </c>
       <c r="R10" s="3"/>
-      <c r="S10" s="51">
+      <c r="S10" s="48">
         <v>-1</v>
       </c>
-      <c r="T10" s="55" t="s">
+      <c r="T10" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="56"/>
+      <c r="U10" s="53"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="51">
+      <c r="X10" s="48">
         <v>5</v>
       </c>
-      <c r="Y10" s="61" t="s">
+      <c r="Y10" s="58" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2207,7 +3335,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="75"/>
-      <c r="Q11" s="57"/>
+      <c r="Q11" s="54"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2241,59 +3369,59 @@
       <c r="G12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="M12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="N12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="Q12" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="50" t="s">
+      <c r="R12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="13.9" x14ac:dyDescent="0.3">
@@ -2302,40 +3430,42 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="3">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13" s="32">
         <v>0</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="3"/>
+      <c r="J13" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
       <c r="L13" s="34"/>
       <c r="M13" s="20"/>
-      <c r="N13" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="36">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="37"/>
+      <c r="N13" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="O13" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" s="36"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="3" t="s">
-        <v>82</v>
+      <c r="R13" s="62" t="s">
+        <v>167</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -2353,43 +3483,45 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="13">
         <v>4</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>79</v>
+      <c r="H14" s="62" t="s">
+        <v>171</v>
       </c>
       <c r="I14" s="32">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="3"/>
+      <c r="J14" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="O14" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="38"/>
+        <v>81</v>
+      </c>
+      <c r="O14" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="37"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="3" t="s">
-        <v>85</v>
+      <c r="R14" s="62" t="s">
+        <v>170</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2406,7 +3538,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -2419,25 +3551,29 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="I15" s="28">
+        <v>1</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
-      <c r="N15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="37"/>
+      <c r="N15" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="O15" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="P15" s="36"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="3" t="s">
-        <v>89</v>
+      <c r="R15" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2455,7 +3591,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -2468,25 +3604,29 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="I16" s="28">
+        <v>0</v>
+      </c>
+      <c r="J16" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
-      <c r="N16" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="O16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="37"/>
+      <c r="N16" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="O16" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="P16" s="36"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2503,8 +3643,8 @@
       <c r="B17" s="12">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>93</v>
+      <c r="C17" s="62" t="s">
+        <v>219</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -2517,25 +3657,29 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="I17" s="28">
+        <v>1</v>
+      </c>
+      <c r="J17" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
-      <c r="N17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P17" s="37"/>
+      <c r="N17" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P17" s="36"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="3" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2553,40 +3697,42 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="13">
         <v>4</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>79</v>
+      <c r="H18" s="62" t="s">
+        <v>173</v>
       </c>
       <c r="I18" s="28">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="3"/>
+      <c r="J18" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
-      <c r="N18" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P18" s="37"/>
+      <c r="N18" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18" s="36"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="35" t="s">
-        <v>98</v>
+      <c r="R18" s="69" t="s">
+        <v>186</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -2603,7 +3749,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -2615,21 +3761,21 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="20"/>
-      <c r="N19" s="40" t="s">
-        <v>100</v>
+      <c r="N19" s="38" t="s">
+        <v>87</v>
       </c>
       <c r="O19" s="3">
         <v>-1</v>
       </c>
-      <c r="R19" s="40" t="s">
-        <v>101</v>
+      <c r="R19" s="38" t="s">
+        <v>88</v>
       </c>
       <c r="Y19" s="3">
         <v>0</v>
@@ -2640,34 +3786,38 @@
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
-        <v>78</v>
+      <c r="F20" s="60" t="s">
+        <v>156</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I20" s="28">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="N20" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R20" s="40"/>
+      <c r="J20" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="R20" s="66" t="s">
+        <v>159</v>
+      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -2677,7 +3827,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2689,19 +3839,19 @@
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" s="41" t="s">
-        <v>107</v>
+        <v>79</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>93</v>
       </c>
       <c r="O21" s="3">
         <v>-1</v>
       </c>
-      <c r="R21" s="40" t="s">
-        <v>108</v>
+      <c r="R21" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Y21" s="3">
         <v>0</v>
@@ -2712,33 +3862,33 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N22" s="41" t="s">
-        <v>110</v>
+        <v>79</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="O22" s="3">
         <v>-1</v>
       </c>
-      <c r="R22" s="40"/>
+      <c r="R22" s="38"/>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
@@ -2748,31 +3898,31 @@
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G23">
         <v>5</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" s="41" t="s">
-        <v>113</v>
+        <v>79</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="O23" s="3">
         <v>-1</v>
       </c>
-      <c r="R23" s="40" t="s">
-        <v>114</v>
+      <c r="R23" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
@@ -2783,34 +3933,37 @@
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>117</v>
+      <c r="H24" s="62" t="s">
+        <v>173</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N24" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R24" s="40" t="s">
-        <v>119</v>
+      <c r="J24" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="O24" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="R24" s="66" t="s">
+        <v>175</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -2821,7 +3974,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -2832,20 +3985,23 @@
       <c r="G25">
         <v>3</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N25" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="O25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R25" s="40" t="s">
-        <v>122</v>
+      <c r="H25" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="O25" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="R25" s="66" t="s">
+        <v>178</v>
       </c>
       <c r="Y25" s="3">
         <v>0</v>
@@ -2856,31 +4012,31 @@
         <v>14</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N26" s="42" t="s">
-        <v>124</v>
+        <v>103</v>
+      </c>
+      <c r="J26" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="N26" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="O26" s="3">
         <v>-1</v>
       </c>
-      <c r="R26" s="40" t="s">
-        <v>119</v>
+      <c r="R26" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
@@ -2891,7 +4047,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -2903,18 +4059,24 @@
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R27" s="40"/>
+        <v>110</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="R27" s="38"/>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2924,33 +4086,33 @@
         <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G28">
         <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>129</v>
+        <v>79</v>
+      </c>
+      <c r="N28" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="O28" s="3">
         <v>-1</v>
       </c>
-      <c r="R28" s="40"/>
+      <c r="R28" s="38"/>
       <c r="Y28" s="3">
         <v>0</v>
       </c>
@@ -2960,7 +4122,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -2972,10 +4134,10 @@
         <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N29" s="44" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="N29" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="O29" s="3">
         <v>-1</v>
@@ -2990,13 +4152,13 @@
         <v>18</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -3005,10 +4167,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N30" s="44" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="N30" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="O30" s="3">
         <v>-1</v>
@@ -3022,8 +4184,8 @@
       <c r="B31" s="16">
         <v>19</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>134</v>
+      <c r="C31" s="67" t="s">
+        <v>220</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -3034,20 +4196,26 @@
       <c r="G31">
         <v>1</v>
       </c>
+      <c r="H31" s="62" t="s">
+        <v>221</v>
+      </c>
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="O31" s="3">
-        <v>-1</v>
+      <c r="J31" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="Y31" s="3">
         <v>0</v>
@@ -3058,22 +4226,22 @@
         <v>20</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="O32" s="3">
         <v>-1</v>
@@ -3088,22 +4256,22 @@
         <v>21</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N33" s="44" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="N33" s="41" t="s">
+        <v>123</v>
       </c>
       <c r="O33" s="3">
         <v>-1</v>
@@ -3118,22 +4286,22 @@
         <v>22</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N34" s="44" t="s">
-        <v>144</v>
+        <v>135</v>
+      </c>
+      <c r="N34" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="O34" s="3">
         <v>-1</v>
@@ -3148,7 +4316,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -3160,16 +4328,16 @@
         <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N35" s="45" t="s">
-        <v>146</v>
+        <v>135</v>
+      </c>
+      <c r="N35" s="42" t="s">
+        <v>127</v>
       </c>
       <c r="O35" s="3">
         <v>-1</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
@@ -3180,28 +4348,28 @@
         <v>24</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N36" s="45" t="s">
-        <v>149</v>
+        <v>135</v>
+      </c>
+      <c r="N36" s="42" t="s">
+        <v>130</v>
       </c>
       <c r="O36" s="3">
         <v>-1</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Y36" s="3">
         <v>0</v>
@@ -3212,22 +4380,22 @@
         <v>25</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N37" s="44" t="s">
-        <v>152</v>
+        <v>135</v>
+      </c>
+      <c r="N37" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="O37" s="3">
         <v>-1</v>
@@ -3242,110 +4410,2695 @@
         <v>26</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G38">
         <v>4</v>
       </c>
+      <c r="H38" s="60" t="s">
+        <v>161</v>
+      </c>
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="N38" s="44" t="s">
+      <c r="J38" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="N38" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="O38" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="R38" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B39" s="16">
+        <v>27</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="62">
+        <v>0</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="O39" s="62">
+        <v>5</v>
+      </c>
+      <c r="R39" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B40" s="16">
+        <v>28</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="62">
+        <v>0</v>
+      </c>
+      <c r="F40" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="N40" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="O40" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B41" s="16">
+        <v>29</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="62">
+        <v>0</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="N41" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="O38">
+      <c r="O41" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="R41" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="16">
+        <v>30</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="62">
+        <v>0</v>
+      </c>
+      <c r="F42" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>182</v>
+      </c>
+      <c r="O42" t="s">
+        <v>183</v>
+      </c>
+      <c r="R42" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B43" s="16">
+        <v>31</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="62">
+        <v>0</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>189</v>
+      </c>
+      <c r="O43" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="R43" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B44" s="16">
+        <v>32</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="62">
+        <v>0</v>
+      </c>
+      <c r="F44" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>196</v>
+      </c>
+      <c r="O44" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B45" s="16">
+        <v>33</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="62">
+        <v>0</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>199</v>
+      </c>
+      <c r="O45" t="s">
+        <v>200</v>
+      </c>
+      <c r="R45" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B46" s="16">
+        <v>34</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="62">
+        <v>0</v>
+      </c>
+      <c r="F46" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>203</v>
+      </c>
+      <c r="O46" t="s">
+        <v>204</v>
+      </c>
+      <c r="R46" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B47" s="16">
+        <v>35</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="62">
+        <v>0</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>207</v>
+      </c>
+      <c r="O47" t="s">
+        <v>208</v>
+      </c>
+      <c r="R47" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B48" s="16">
+        <v>36</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="62">
+        <v>0</v>
+      </c>
+      <c r="F48" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>211</v>
+      </c>
+      <c r="O48" t="s">
+        <v>212</v>
+      </c>
+      <c r="R48" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B49" s="16">
+        <v>37</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="62">
+        <v>1</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>229</v>
+      </c>
+      <c r="O49" t="s">
+        <v>230</v>
+      </c>
+      <c r="R49" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B50" s="16">
+        <v>38</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="62">
+        <v>0</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="I50">
         <v>-1</v>
       </c>
-      <c r="R38" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="49" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="50" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="51" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="52" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="53" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="54" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="55" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="57" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="58" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="59" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="60" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="61" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="62" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="63" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="64" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="65" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="66" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="67" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="68" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="69" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="70" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="71" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="72" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="73" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="74" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="75" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="76" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="77" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="78" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="79" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="80" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="81" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="82" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="83" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="84" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="85" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="86" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="87" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="88" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="89" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="90" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="91" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="92" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="93" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="94" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="95" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="96" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="97" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="98" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="99" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="100" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="101" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="102" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="103" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="105" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="106" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="107" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="108" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="109" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="110" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="111" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
-    <row r="112" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
+      <c r="J50" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>236</v>
+      </c>
+      <c r="O50" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B51" s="16">
+        <v>39</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="62">
+        <v>2</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>240</v>
+      </c>
+      <c r="O51" t="s">
+        <v>241</v>
+      </c>
+      <c r="R51" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B52" s="16">
+        <v>40</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="62">
+        <v>0</v>
+      </c>
+      <c r="F52" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="I52">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>245</v>
+      </c>
+      <c r="O52" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="R52" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B53" s="16">
+        <v>41</v>
+      </c>
+      <c r="C53" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" s="62">
+        <v>0</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>249</v>
+      </c>
+      <c r="O53" t="s">
+        <v>250</v>
+      </c>
+      <c r="R53" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B54" s="16">
+        <v>42</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="62">
+        <v>1</v>
+      </c>
+      <c r="F54" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="M54" s="73">
+        <v>44641</v>
+      </c>
+      <c r="N54" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="O54" t="s">
+        <v>255</v>
+      </c>
+      <c r="R54" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B55" s="16">
+        <v>43</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="62">
+        <v>0</v>
+      </c>
+      <c r="F55" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="I55">
+        <v>-1</v>
+      </c>
+      <c r="J55" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>261</v>
+      </c>
+      <c r="O55" t="s">
+        <v>263</v>
+      </c>
+      <c r="R55" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B56" s="16">
+        <v>44</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="D56" s="62">
+        <v>0</v>
+      </c>
+      <c r="F56" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="I56">
+        <v>-1</v>
+      </c>
+      <c r="J56" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>266</v>
+      </c>
+      <c r="O56" t="s">
+        <v>267</v>
+      </c>
+      <c r="R56" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B57" s="16">
+        <v>45</v>
+      </c>
+      <c r="C57" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="62">
+        <v>0</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="I57">
+        <v>-1</v>
+      </c>
+      <c r="J57" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>273</v>
+      </c>
+      <c r="O57" t="s">
+        <v>274</v>
+      </c>
+      <c r="R57" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B58" s="16">
+        <v>46</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="62">
+        <v>0</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>278</v>
+      </c>
+      <c r="O58" t="s">
+        <v>279</v>
+      </c>
+      <c r="R58" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B59" s="16">
+        <v>47</v>
+      </c>
+      <c r="C59" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="D59" s="62">
+        <v>0</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="I59">
+        <v>-1</v>
+      </c>
+      <c r="J59" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>283</v>
+      </c>
+      <c r="O59" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B60" s="16">
+        <v>48</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" s="62">
+        <v>0</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>287</v>
+      </c>
+      <c r="O60" t="s">
+        <v>288</v>
+      </c>
+      <c r="R60" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B61" s="16">
+        <v>49</v>
+      </c>
+      <c r="C61" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="62">
+        <v>0</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>292</v>
+      </c>
+      <c r="O61" t="s">
+        <v>293</v>
+      </c>
+      <c r="R61" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B62" s="16">
+        <v>50</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="I62">
+        <v>-1</v>
+      </c>
+      <c r="J62" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>298</v>
+      </c>
+      <c r="O62" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B63" s="16">
+        <v>51</v>
+      </c>
+      <c r="C63" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="D63" s="62">
+        <v>0</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="I63">
+        <v>-1</v>
+      </c>
+      <c r="J63" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>302</v>
+      </c>
+      <c r="O63" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B64" s="16">
+        <v>52</v>
+      </c>
+      <c r="C64" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" s="62">
+        <v>2</v>
+      </c>
+      <c r="F64" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="J64" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>304</v>
+      </c>
+      <c r="O64" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B65" s="16">
+        <v>53</v>
+      </c>
+      <c r="C65" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="D65" s="62">
+        <v>1</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="M65" s="73">
+        <v>44641</v>
+      </c>
+      <c r="N65" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="O65" t="s">
+        <v>307</v>
+      </c>
+      <c r="R65" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B66" s="16">
+        <v>54</v>
+      </c>
+      <c r="C66" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" s="62">
+        <v>0</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>313</v>
+      </c>
+      <c r="O66" t="s">
+        <v>314</v>
+      </c>
+      <c r="R66" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B67" s="16">
+        <v>55</v>
+      </c>
+      <c r="C67" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67" s="62">
+        <v>2</v>
+      </c>
+      <c r="F67" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>319</v>
+      </c>
+      <c r="O67" t="s">
+        <v>320</v>
+      </c>
+      <c r="R67" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B68" s="16">
+        <v>56</v>
+      </c>
+      <c r="C68" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="62">
+        <v>1</v>
+      </c>
+      <c r="F68" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="M68" s="73">
+        <v>44641</v>
+      </c>
+      <c r="N68" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="O68" t="s">
+        <v>325</v>
+      </c>
+      <c r="R68" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B69" s="16">
+        <v>57</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" s="62">
+        <v>1</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="O69" t="s">
+        <v>328</v>
+      </c>
+      <c r="R69" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B70" s="16">
+        <v>58</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="62">
+        <v>0</v>
+      </c>
+      <c r="F70" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="I70">
+        <v>-1</v>
+      </c>
+      <c r="J70" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>333</v>
+      </c>
+      <c r="O70" t="s">
+        <v>334</v>
+      </c>
+      <c r="R70" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B71" s="16">
+        <v>59</v>
+      </c>
+      <c r="C71" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="D71" s="62">
+        <v>0</v>
+      </c>
+      <c r="F71" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="I71">
+        <v>-1</v>
+      </c>
+      <c r="J71" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>338</v>
+      </c>
+      <c r="O71" t="s">
+        <v>339</v>
+      </c>
+      <c r="R71" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B72" s="16">
+        <v>60</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="D72" s="62">
+        <v>0</v>
+      </c>
+      <c r="F72" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="I72">
+        <v>-1</v>
+      </c>
+      <c r="J72" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>345</v>
+      </c>
+      <c r="O72" t="s">
+        <v>346</v>
+      </c>
+      <c r="R72" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B73" s="16">
+        <v>61</v>
+      </c>
+      <c r="C73" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="D73" s="62">
+        <v>0</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+      <c r="H73" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="I73">
+        <v>-1</v>
+      </c>
+      <c r="J73" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>350</v>
+      </c>
+      <c r="O73" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B74" s="16">
+        <v>62</v>
+      </c>
+      <c r="C74" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="D74" s="62">
+        <v>1</v>
+      </c>
+      <c r="F74" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>354</v>
+      </c>
+      <c r="O74" t="s">
+        <v>355</v>
+      </c>
+      <c r="R74" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B75" s="16">
+        <v>63</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" s="62">
+        <v>0</v>
+      </c>
+      <c r="F75" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>359</v>
+      </c>
+      <c r="O75" t="s">
+        <v>360</v>
+      </c>
+      <c r="R75" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B76" s="16">
+        <v>64</v>
+      </c>
+      <c r="C76" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="D76" s="62">
+        <v>1</v>
+      </c>
+      <c r="F76" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>364</v>
+      </c>
+      <c r="O76" t="s">
+        <v>365</v>
+      </c>
+      <c r="R76" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B77" s="16">
+        <v>65</v>
+      </c>
+      <c r="C77" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="62">
+        <v>0</v>
+      </c>
+      <c r="F77" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="I77">
+        <v>-1</v>
+      </c>
+      <c r="J77" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>369</v>
+      </c>
+      <c r="O77" t="s">
+        <v>334</v>
+      </c>
+      <c r="R77" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B78" s="16">
+        <v>66</v>
+      </c>
+      <c r="C78" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="D78" s="62">
+        <v>2</v>
+      </c>
+      <c r="F78" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>372</v>
+      </c>
+      <c r="O78" t="s">
+        <v>373</v>
+      </c>
+      <c r="R78" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B79" s="16">
+        <v>67</v>
+      </c>
+      <c r="C79" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="D79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="I79">
+        <v>-1</v>
+      </c>
+      <c r="J79" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>376</v>
+      </c>
+      <c r="O79" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B80" s="16">
+        <v>68</v>
+      </c>
+      <c r="C80" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="D80" s="62">
+        <v>1</v>
+      </c>
+      <c r="F80" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>378</v>
+      </c>
+      <c r="O80" t="s">
+        <v>379</v>
+      </c>
+      <c r="R80" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="16">
+        <v>69</v>
+      </c>
+      <c r="C81" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="D81" s="62">
+        <v>2</v>
+      </c>
+      <c r="F81" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>382</v>
+      </c>
+      <c r="O81" t="s">
+        <v>383</v>
+      </c>
+      <c r="R81" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B82" s="16">
+        <v>70</v>
+      </c>
+      <c r="C82" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="D82" s="62">
+        <v>1</v>
+      </c>
+      <c r="F82" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>386</v>
+      </c>
+      <c r="O82" t="s">
+        <v>387</v>
+      </c>
+      <c r="R82" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B83" s="16">
+        <v>71</v>
+      </c>
+      <c r="C83" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D83" s="62">
+        <v>2</v>
+      </c>
+      <c r="F83" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>390</v>
+      </c>
+      <c r="O83" t="s">
+        <v>391</v>
+      </c>
+      <c r="R83" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B84" s="16">
+        <v>72</v>
+      </c>
+      <c r="C84" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="D84" s="62">
+        <v>0</v>
+      </c>
+      <c r="F84" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>394</v>
+      </c>
+      <c r="O84" t="s">
+        <v>339</v>
+      </c>
+      <c r="R84" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B85" s="16">
+        <v>73</v>
+      </c>
+      <c r="C85" s="67" t="s">
+        <v>395</v>
+      </c>
+      <c r="D85" s="62">
+        <v>0</v>
+      </c>
+      <c r="F85" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="I85">
+        <v>-1</v>
+      </c>
+      <c r="J85" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="N85" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="O85" t="s">
+        <v>339</v>
+      </c>
+      <c r="R85" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B86" s="16">
+        <v>74</v>
+      </c>
+      <c r="C86" s="67" t="s">
+        <v>397</v>
+      </c>
+      <c r="D86" s="62">
+        <v>2</v>
+      </c>
+      <c r="F86" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>399</v>
+      </c>
+      <c r="O86" t="s">
+        <v>400</v>
+      </c>
+      <c r="R86" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B87" s="16">
+        <v>75</v>
+      </c>
+      <c r="C87" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="D87" s="62">
+        <v>0</v>
+      </c>
+      <c r="F87" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="I87">
+        <v>-1</v>
+      </c>
+      <c r="J87" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>403</v>
+      </c>
+      <c r="O87" t="s">
+        <v>284</v>
+      </c>
+      <c r="R87" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B88" s="16">
+        <v>76</v>
+      </c>
+      <c r="C88" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="D88" s="62">
+        <v>0</v>
+      </c>
+      <c r="F88" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="I88">
+        <v>-1</v>
+      </c>
+      <c r="J88" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>406</v>
+      </c>
+      <c r="O88" t="s">
+        <v>407</v>
+      </c>
+      <c r="R88" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B89" s="16">
+        <v>77</v>
+      </c>
+      <c r="C89" s="67" t="s">
+        <v>408</v>
+      </c>
+      <c r="D89" s="62">
+        <v>0</v>
+      </c>
+      <c r="F89" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>409</v>
+      </c>
+      <c r="O89" t="s">
+        <v>410</v>
+      </c>
+      <c r="R89" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B90" s="16">
+        <v>78</v>
+      </c>
+      <c r="C90" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="D90" s="62">
+        <v>0</v>
+      </c>
+      <c r="F90" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="I90">
+        <v>-1</v>
+      </c>
+      <c r="J90" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>413</v>
+      </c>
+      <c r="O90" t="s">
+        <v>414</v>
+      </c>
+      <c r="R90" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B91" s="16">
+        <v>79</v>
+      </c>
+      <c r="C91" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="D91" s="62">
+        <v>0</v>
+      </c>
+      <c r="F91" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>417</v>
+      </c>
+      <c r="O91" t="s">
+        <v>284</v>
+      </c>
+      <c r="R91" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B92" s="16">
+        <v>80</v>
+      </c>
+      <c r="C92" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="D92" s="62">
+        <v>1</v>
+      </c>
+      <c r="F92" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="G92" s="60">
+        <v>5</v>
+      </c>
+      <c r="H92" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>421</v>
+      </c>
+      <c r="O92" t="s">
+        <v>422</v>
+      </c>
+      <c r="R92" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B93" s="16">
+        <v>81</v>
+      </c>
+      <c r="C93" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="D93" s="62">
+        <v>0</v>
+      </c>
+      <c r="F93" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="G93" s="60">
+        <v>4</v>
+      </c>
+      <c r="H93" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="I93">
+        <v>-1</v>
+      </c>
+      <c r="J93" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>425</v>
+      </c>
+      <c r="O93" t="s">
+        <v>426</v>
+      </c>
+      <c r="R93" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B94" s="16">
+        <v>82</v>
+      </c>
+      <c r="C94" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="D94" s="62">
+        <v>1</v>
+      </c>
+      <c r="F94" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="G94" s="60">
+        <v>2</v>
+      </c>
+      <c r="H94" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>428</v>
+      </c>
+      <c r="O94" t="s">
+        <v>429</v>
+      </c>
+      <c r="R94" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B95" s="16">
+        <v>83</v>
+      </c>
+      <c r="C95" s="67" t="s">
+        <v>431</v>
+      </c>
+      <c r="D95" s="62">
+        <v>1</v>
+      </c>
+      <c r="F95" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G95" s="60">
+        <v>1</v>
+      </c>
+      <c r="H95" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="M95" s="73">
+        <v>44641</v>
+      </c>
+      <c r="N95" t="s">
+        <v>432</v>
+      </c>
+      <c r="O95" t="s">
+        <v>433</v>
+      </c>
+      <c r="R95" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B96" s="16">
+        <v>84</v>
+      </c>
+      <c r="C96" s="67" t="s">
+        <v>434</v>
+      </c>
+      <c r="D96" s="62">
+        <v>1</v>
+      </c>
+      <c r="F96" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G96" s="60">
+        <v>1</v>
+      </c>
+      <c r="H96" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="M96" s="73">
+        <v>44641</v>
+      </c>
+      <c r="N96" t="s">
+        <v>435</v>
+      </c>
+      <c r="O96" t="s">
+        <v>436</v>
+      </c>
+      <c r="R96" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B97" s="16">
+        <v>85</v>
+      </c>
+      <c r="C97" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="D97" s="62">
+        <v>2</v>
+      </c>
+      <c r="F97" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="G97" s="60">
+        <v>4</v>
+      </c>
+      <c r="H97" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>439</v>
+      </c>
+      <c r="O97" t="s">
+        <v>440</v>
+      </c>
+      <c r="R97" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B98" s="16">
+        <v>86</v>
+      </c>
+      <c r="C98" s="67" t="s">
+        <v>442</v>
+      </c>
+      <c r="D98" s="62">
+        <v>1</v>
+      </c>
+      <c r="F98" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G98" s="60">
+        <v>1</v>
+      </c>
+      <c r="H98" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="I98">
+        <v>-1</v>
+      </c>
+      <c r="J98" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>443</v>
+      </c>
+      <c r="O98" t="s">
+        <v>284</v>
+      </c>
+      <c r="R98" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B99" s="16">
+        <v>87</v>
+      </c>
+      <c r="C99" s="67" t="s">
+        <v>445</v>
+      </c>
+      <c r="D99" s="62">
+        <v>0</v>
+      </c>
+      <c r="F99" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="G99" s="60">
+        <v>3</v>
+      </c>
+      <c r="H99" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="I99">
+        <v>-1</v>
+      </c>
+      <c r="J99" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>446</v>
+      </c>
+      <c r="O99" t="s">
+        <v>447</v>
+      </c>
+      <c r="R99" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B100" s="16">
+        <v>88</v>
+      </c>
+      <c r="C100" s="67" t="s">
+        <v>449</v>
+      </c>
+      <c r="D100" s="62">
+        <v>1</v>
+      </c>
+      <c r="F100" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="G100" s="60">
+        <v>3</v>
+      </c>
+      <c r="H100" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>450</v>
+      </c>
+      <c r="O100" t="s">
+        <v>451</v>
+      </c>
+      <c r="R100" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B101" s="16">
+        <v>89</v>
+      </c>
+      <c r="C101" s="67" t="s">
+        <v>453</v>
+      </c>
+      <c r="D101" s="62">
+        <v>0</v>
+      </c>
+      <c r="F101" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G101" s="60">
+        <v>1</v>
+      </c>
+      <c r="H101" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="I101">
+        <v>-1</v>
+      </c>
+      <c r="J101" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>454</v>
+      </c>
+      <c r="O101" t="s">
+        <v>407</v>
+      </c>
+      <c r="R101" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B102" s="16">
+        <v>90</v>
+      </c>
+      <c r="C102" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="D102" s="62">
+        <v>2</v>
+      </c>
+      <c r="F102" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="G102" s="60">
+        <v>4</v>
+      </c>
+      <c r="H102" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
+        <v>240</v>
+      </c>
+      <c r="O102" t="s">
+        <v>230</v>
+      </c>
+      <c r="R102" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B103" s="16">
+        <v>91</v>
+      </c>
+      <c r="C103" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="D103" s="62">
+        <v>0</v>
+      </c>
+      <c r="F103" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G103" s="60">
+        <v>1</v>
+      </c>
+      <c r="H103" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
+        <v>459</v>
+      </c>
+      <c r="O103" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="104" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
+    <row r="105" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
+    <row r="106" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
+    <row r="107" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
+    <row r="108" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
+    <row r="109" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
+    <row r="110" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
+    <row r="111" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
+    <row r="112" spans="2:25" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
     <row r="113" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
     <row r="114" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
     <row r="115" customFormat="1" ht="13.9" x14ac:dyDescent="0.4"/>
